--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00151606</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Evaluation of Two Protocols to Prevent the Acquisition of Methicillin-Resistant Staphylococcus Aureus in Intensive Care Units.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00134212</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00219856</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Simple Blind Study Comparing the Effects of an Anaesthesia With Propofol to an Anaesthesia With Desflurane on Oxydative Stress and Liver Function Recovery After Hepatectomy</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -640,36 +660,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00151580</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>TRANSPEG</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -688,32 +713,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00138684</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cytochrome P450 2E1 and Iron Overload</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00151567</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Interest of a Treatment With the alpha1-blocker Tamsulosin in the Elimination of Pelvis Ureteral Stones</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>TAMSULOSINE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -780,32 +815,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00151593</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -824,36 +864,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00280592</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Double-blind, Placebo-controlled Study on Parallel Groups Evaluating the Efficacy and Safety of Cranberry (Vaccinium Macrocarpon) in Prevention of Urinary Tract Infections in Multiple Sclerosis Patients.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>CANNEBERGE</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -872,36 +917,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00305916</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Accuracy of Multislice Spiral Computed Tomography in Diagnosis of Coronary Artery Disease Associated to Idiopathic Cardiomyopathy in Sinus Rhythm ("MSCT-IC Study").</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>CMD-scanner</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -920,36 +970,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT00598026</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Evaluation of the " Tele-follow-up " for the Follow-up of Implantable Defibrillators</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>EVATEL</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -968,32 +1023,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01282567</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Preliminary Study for the Artificial Pancreas Project : Determination of a Tuning Strategy of Metabolic Profiles</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1012,36 +1072,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01437917</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>NOMAC : New Tools for Managing the Fate of Cereal Nutrients in the Gut : Effects of Amylose Content on Glycemic Index.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>NOMAC</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1060,36 +1125,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01435668</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Impact Evaluation at 3 Months Follow-up of a Brief Motivational Intervention in Reducing Alcohol Consumption Versus Simple Written Advice Only Among Adolescents Aged 16-24 in Pontchaillou Hospital Emergency Department in Rennes, France</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>AURAIA</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1108,36 +1178,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01282554</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Evaluation of Electrostimulation Program During Dialysis Sessions in Chronic Renal Failure Patients</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>EMS-Dialyse</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1156,36 +1231,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01780883</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Melatonin Dose-effect Relation in Childhood Autism</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>MELADOSE</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1204,36 +1284,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT00401336</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>SURFER</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1252,36 +1337,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01883024</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>IPRA</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1298,38 +1388,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2008-008372-13</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>esogia</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1344,36 +1439,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02061488</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Prospective, Monocentric, Crossover Randomized Trial, to Assess a New Closed-loop Algorithm in Type 1 Diabetes (Saddle Point Model Predictive Control : SP-MPC)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>PPA</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1390,38 +1490,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2008-006045-10</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Effet de la stimulation dopaminergique continue par pompe à apomorphine sur les fluctuations cognitives et psychiques des patients parkinsoniens: étude clinique et métabolique cérébrale par TEP au 18FDG</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>APO TEP</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02304874</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Evaluation of Body Iron Stores in Overweight Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>FERNORM</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1484,36 +1594,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01543100</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>PACMoG</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1532,36 +1647,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01543113</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>KitMel</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1580,32 +1700,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01257139</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>ESOGIA</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1624,36 +1749,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02067455</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>This is a Non-randomized, Single-center, Prospective Investigation on Exercise Capacities of Left Ventricular Assist Devices Recipients</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>REVADE</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1672,36 +1802,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01673230</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ALTERVOL</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1720,36 +1855,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02305771</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>BRAINGRAPH</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1768,32 +1908,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02882399</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Shortystrap</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1812,36 +1957,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01576315</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ATCF</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1860,36 +2010,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02149862</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>FIRBladd</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1908,36 +2063,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02096367</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>VIBR-AVC</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1956,36 +2116,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01572818</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>SAINPOS</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2004,36 +2169,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01045525</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>SAIGNEES</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2052,36 +2222,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01039090</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>APO-TEP</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02060578</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>DELI-DEVI</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2148,36 +2328,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02018484</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>PSI-PUC</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02350556</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>EQHEM</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2244,36 +2434,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02357407</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>FLUO-POP</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2292,36 +2487,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03274843</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>EVIC-AVC</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2340,36 +2540,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT01738516</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>conneXion</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2388,36 +2593,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT01743703</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>PEDIMA</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2436,36 +2646,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02140918</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>AFLUCO4</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2484,36 +2699,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02112331</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>ARCHILACT</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2532,36 +2752,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT00925691</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>SEPTAL-PM</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2580,36 +2805,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT01569724</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Estimation of Carbohydrate Metabolism Disorder Frequency in Hypertriglyceridemia Induced by Bexarotene Treatment of Cutaneous T Cell Lymphoma - Pilote Study</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>TgBEX</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2628,36 +2858,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02131909</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>PC MIROIR</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2676,36 +2911,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT00287105</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>ESPHALL</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2724,36 +2964,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02099214</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Estimation of Myocardial Iron Overload by 3 Tesla MRI and Cardiac Functional Consequences in Patients With HFE Hereditary Haemochromatosis. Pilot Study</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>HEMOCOEUR</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2772,36 +3017,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02125110</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>PERINE</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2820,36 +3070,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT01677078</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>TMS</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2868,36 +3123,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02492529</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>EPMR-MA</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2916,36 +3176,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT01789008</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Interest of Transient Elastography in the Determination of Advanced Fibrosis in Alcoholic Liver Didease in Alcoholic Patients in Weaning.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>FIBR-OH</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2964,36 +3229,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02662322</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>KTHYPE</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3012,36 +3282,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03651960</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>ROBO-K</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3060,32 +3335,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT01388387</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3104,36 +3384,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT01148069</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3152,36 +3437,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02594956</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>IPOD</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3200,36 +3490,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02857205</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>MICROPRUNG</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3248,36 +3543,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT01282593</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>LAL TEL/ALM1</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3296,36 +3596,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT01973478</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>STHYM</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3344,36 +3649,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03484052</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Place of Jugular Ultrasound in the Evaluation of the Volemia by a Clinician Doctor in Routine Care (JUVIA)</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>JUVIA</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3392,36 +3702,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02990195</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>RESCUE</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3440,36 +3755,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02528032</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>RICART</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3488,36 +3808,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02753387</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>ORAL-ISO</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3536,36 +3861,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03174327</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>SUPERSONIC</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3584,36 +3914,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02465970</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>BRAINSTIM</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3632,32 +3967,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT01949467</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3676,36 +4016,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02398474</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>TFP</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3724,36 +4069,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT02041169</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>CLASH</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
       <c r="J70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3772,36 +4122,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT03279913</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>NEUROFEEDSTIM</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3818,39 +4173,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2016-001413-24</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure. 
  Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>TAP ALIF</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3865,36 +4225,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT01677091</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>AVCPOSTIM</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3913,36 +4278,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT03828968</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>RUC EHPAD</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3961,36 +4331,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT03267927</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>SAOS</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4009,36 +4384,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03818750</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Impact of Marketing of Alcohol Products on Young People</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>IMAJ</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4057,36 +4437,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT03076489</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Hed-O-Shift</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4105,36 +4490,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT04079244</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>ALFA</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4153,36 +4543,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT03046199</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Detection of COPD in Primary Care</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>DISCO</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4201,36 +4596,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT01810965</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Impact of Bloodletting on Iron Metabolism in Type 1 Hemochromatosis: Pathophysiological and Clinical Implications. Pilot Study.</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>SAIFER</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4249,36 +4649,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT02400047</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>DEXA OP</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4297,36 +4702,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03376074</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>PERPHO</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4345,36 +4755,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT03638921</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>NEPHROPAIN</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4393,36 +4808,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT03673189</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>SHERPAM</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4441,36 +4861,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT02361450</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>IRRICO</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4489,36 +4914,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT02884440</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>TAP ALIF</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4537,36 +4967,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT02966847</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>CAVIT</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4585,36 +5020,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT03110094</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>PROMETHEE</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4633,36 +5073,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT03200457</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>HEMOCOMPARE</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4681,36 +5126,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT02822144</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>GASS</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4729,40 +5179,45 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT02650609</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2015-000927-96</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>SUCRE</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4781,36 +5236,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT02864017</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Immunocitre</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -4829,36 +5289,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03942432</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>EvoHSD</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4877,36 +5342,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT01613638</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>PENEW</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
       <c r="J94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4925,36 +5395,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT02802397</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>AROPE</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4973,36 +5448,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT04455308</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>ECCES</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5021,36 +5501,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT02212483</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>ECENVIR</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5069,36 +5554,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT04416308</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>AntiCoV-HB</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5117,36 +5607,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT02470247</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>IPC-Angio</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5165,36 +5660,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT02599493</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>EVRIOS</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5213,36 +5713,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT02937285</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>MITOX-REBIF</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5261,36 +5766,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT03372174</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Beneficial Effects on Maintaining Mechanical Ventilation During Cardiopulmonary Bypass for Cardiac Surgery on Postoperative Infections</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>VECAR</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5309,36 +5819,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT04235972</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>ESWWA</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5357,36 +5872,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT05891522</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Pilot Study of the Use of a Portable Cranial Scanner in Intensive Care for Cerebro-injured Patients</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>ESPER</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5405,36 +5925,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT04404426</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>CACOLAC : Randomized Trial of Citrulline Administration in the Hospital Patient in Intensive Care for COVID-19 Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>CACOLAC</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -5453,36 +5978,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT02900339</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>MRI Sequences Optimization in Healthy Subjects</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>OSS-IRM</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5501,36 +6031,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT03454711</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>AddictO</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5549,36 +6084,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT04742465</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>ARIADE</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5597,36 +6137,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT04771091</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>EchoPé</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -5645,36 +6190,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT04473742</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>MacFibOsis</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5693,36 +6243,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT04373200</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>HARMONICOV</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5741,36 +6296,41 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>NCT03030170</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>REPLAY</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5789,36 +6349,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT03396770</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>NEPHROCAR</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5837,36 +6402,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT03140644</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>SARCOLOWDOSE</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5883,19 +6453,24 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-002842-60</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Randomised phase III study testing nivolumab and ipilimumab versus a  carboplatin based doublet in first line treatment of PS 2 or elderly (more@@ -5904,22 +6479,22 @@
  ipilimumab versus un doublet à base de carboplatine dans le traitement de première ligne du CBNPC chez des patients PS 2 ou de plus de 70 ans</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>Lena eNERGY 
  Lena eNERGY</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5934,36 +6509,41 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT04211220</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Clinical Evaluation of Insulin Real-Time Advisor (IRTA©): a Decision Support Software for Insulin Therapy Combined With Freestyle Libre®, a Continuous Glucose Monitoring System: Glycemic Impact and Satisfaction in Type 1 Diabetic Patients</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>IRTA</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5982,36 +6562,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT04539899</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Evaluation of the Influence of the Virtual Reality Helmet on Pain During IUD Insertion : REAVIST</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>REAVIST</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6030,36 +6615,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>NCT03291977</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>FLEGME</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -6078,32 +6668,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT04624347</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -6122,36 +6717,41 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>NCT03351361</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Randomized Phase III Study Testing Nivolumab and Ipilimumab Versus a Carboplatin Based Doublet in First Line Treatment of PS 2 or Elderly (More Than 70 Years Old) Patients With Advanced Non-small Cell Lung Cancer</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>eNERGY</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6170,36 +6770,41 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>NCT03570385</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>DTI et NOI</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6218,36 +6823,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>NCT04001556</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>REUSSI-SSc</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -6266,36 +6876,41 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>NCT04129333</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>HYPIC</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6314,36 +6929,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>NCT03693872</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>AGAPO</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
       <c r="J124" t="b">
         <v>0</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6362,36 +6982,41 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>NCT03805997</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>ALLAITEMENT</t>
         </is>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
       <c r="J125" t="b">
         <v>0</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6410,36 +7035,41 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>NCT03795103</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>ELECTROPAD</t>
         </is>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
       <c r="J126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="b">
         <v>1</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6458,36 +7088,41 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>NCT05234216</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>COMFORT</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
       <c r="J127" t="b">
         <v>0</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -6504,39 +7139,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>2021-000987-31</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Immunomonitoring and multiple myeloma: impact of lenalidomide on immune checkpoint expression 
  Immunomonitoring et myélome multiple: impact du lénalidomide sur l'expression des immune checkpoint</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>IMMUNO-MYELO</t>
         </is>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6551,36 +7191,41 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>NCT03481686</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>SELFEPO</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6599,36 +7244,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>NCT04489134</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>DIPLOID</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6647,36 +7297,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>NCT03436823</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>DESTIMCARE</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6695,36 +7350,41 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>NCT04562207</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>VIRUS-ATTAC</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -6743,36 +7403,41 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>NCT03744351</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>ABCD-SEP</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6791,36 +7456,41 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>NCT04130711</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>HANDS</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
       <c r="J134" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="b">
         <v>1</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6839,36 +7509,41 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>NCT02537509</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>PRADA</t>
         </is>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
       <c r="J135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="b">
         <v>1</v>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6887,36 +7562,41 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>NCT04872023</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>IMMUNO-MYELO</t>
         </is>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
       <c r="J136" t="b">
         <v>0</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6935,36 +7615,41 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>NCT05255952</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>EpiCANS</t>
         </is>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -6983,36 +7668,41 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>NCT04697407</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>BREGS - IL-2 Signaling and Polarization of Regulatory LBs: Involvement in Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>BREGS</t>
         </is>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
       <c r="J138" t="b">
         <v>0</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -7031,36 +7721,41 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>NCT03807167</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>ACTIDEP</t>
         </is>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
       <c r="J139" t="b">
         <v>0</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7079,36 +7774,41 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>NCT04466800</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>RECOVER-19</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7127,36 +7827,41 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>NCT04646811</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>TRI-FR : Multicentric Randomized Evaluation of Tricuspid Valve Percutaneous Repair System (Clip for the Tricuspid Valve) in the Treatment of Severe Secondary Tricuspid Disorders</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>TRI-FR</t>
         </is>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
       <c r="J141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="b">
         <v>1</v>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -7175,28 +7880,33 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>NCT01296724</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
         <is>
           <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="b">
         <v>0</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7215,32 +7925,37 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>NCT02883504</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>EUROFILLING</t>
         </is>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -7257,34 +7972,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
         <is>
           <t>2006-006353-27</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Etude prospective, randomisée, en double aveugle, comparant l'effet d'une décontamination oro-pharyngée par la povidone-iodée à un placebo sur la réduction des pneumopathies acquises sous ventilation chez les patients traumatisés crâniens graves.</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>SPIRIT</t>
         </is>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
       </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7297,36 +8017,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>2015-000881-73</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
         <is>
           <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
  Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>PRADA 
  PRADA</t>
         </is>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
       </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7339,36 +8064,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
         <is>
           <t>2020-001655-41</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
         <is>
           <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
  Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>DIPLOID 
  DIPLOID</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
       </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7381,35 +8111,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
         <is>
           <t>2021-000826-89</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
         <is>
           <t>Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement 
  Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>PHARM-APO</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
       <c r="J147" t="b">
         <v>0</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00151606</t>

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -73,21 +73,21 @@
     <t>NCT00134212</t>
   </si>
   <si>
+    <t>NCT00151593</t>
+  </si>
+  <si>
     <t>NCT00219856</t>
   </si>
   <si>
+    <t>NCT00138684</t>
+  </si>
+  <si>
     <t>NCT00151580</t>
   </si>
   <si>
-    <t>NCT00138684</t>
-  </si>
-  <si>
     <t>NCT00151567</t>
   </si>
   <si>
-    <t>NCT00151593</t>
-  </si>
-  <si>
     <t>NCT00280592</t>
   </si>
   <si>
@@ -109,43 +109,55 @@
     <t>NCT01282554</t>
   </si>
   <si>
+    <t>NCT00401336</t>
+  </si>
+  <si>
     <t>NCT01780883</t>
   </si>
   <si>
-    <t>NCT00401336</t>
-  </si>
-  <si>
     <t>NCT01883024</t>
   </si>
   <si>
     <t>NCT02061488</t>
   </si>
   <si>
+    <t>NCT01543113</t>
+  </si>
+  <si>
+    <t>NCT01543100</t>
+  </si>
+  <si>
+    <t>NCT01257139</t>
+  </si>
+  <si>
     <t>NCT02304874</t>
   </si>
   <si>
-    <t>NCT01543100</t>
-  </si>
-  <si>
-    <t>NCT01543113</t>
-  </si>
-  <si>
-    <t>NCT01257139</t>
-  </si>
-  <si>
     <t>NCT02067455</t>
   </si>
   <si>
+    <t>NCT01572818</t>
+  </si>
+  <si>
+    <t>NCT02882399</t>
+  </si>
+  <si>
+    <t>NCT01576315</t>
+  </si>
+  <si>
+    <t>NCT01039090</t>
+  </si>
+  <si>
+    <t>NCT02305771</t>
+  </si>
+  <si>
+    <t>NCT02060578</t>
+  </si>
+  <si>
     <t>NCT01673230</t>
   </si>
   <si>
-    <t>NCT02305771</t>
-  </si>
-  <si>
-    <t>NCT02882399</t>
-  </si>
-  <si>
-    <t>NCT01576315</t>
+    <t>NCT01045525</t>
   </si>
   <si>
     <t>NCT02149862</t>
@@ -154,321 +166,309 @@
     <t>NCT02096367</t>
   </si>
   <si>
-    <t>NCT01572818</t>
-  </si>
-  <si>
-    <t>NCT01045525</t>
-  </si>
-  <si>
-    <t>NCT01039090</t>
-  </si>
-  <si>
-    <t>NCT02060578</t>
+    <t>NCT03274843</t>
+  </si>
+  <si>
+    <t>NCT02140918</t>
+  </si>
+  <si>
+    <t>NCT02350556</t>
+  </si>
+  <si>
+    <t>NCT01743703</t>
   </si>
   <si>
     <t>NCT02018484</t>
   </si>
   <si>
-    <t>NCT02350556</t>
+    <t>NCT00925691</t>
+  </si>
+  <si>
+    <t>NCT02112331</t>
+  </si>
+  <si>
+    <t>NCT01738516</t>
   </si>
   <si>
     <t>NCT02357407</t>
   </si>
   <si>
-    <t>NCT03274843</t>
-  </si>
-  <si>
-    <t>NCT01738516</t>
-  </si>
-  <si>
-    <t>NCT01743703</t>
-  </si>
-  <si>
-    <t>NCT02140918</t>
-  </si>
-  <si>
-    <t>NCT02112331</t>
-  </si>
-  <si>
-    <t>NCT00925691</t>
+    <t>NCT01789008</t>
+  </si>
+  <si>
+    <t>NCT02099214</t>
+  </si>
+  <si>
+    <t>NCT02125110</t>
+  </si>
+  <si>
+    <t>NCT02492529</t>
+  </si>
+  <si>
+    <t>NCT00287105</t>
+  </si>
+  <si>
+    <t>NCT01677078</t>
+  </si>
+  <si>
+    <t>NCT02662322</t>
+  </si>
+  <si>
+    <t>NCT03651960</t>
+  </si>
+  <si>
+    <t>NCT02131909</t>
   </si>
   <si>
     <t>NCT01569724</t>
   </si>
   <si>
-    <t>NCT02131909</t>
-  </si>
-  <si>
-    <t>NCT00287105</t>
-  </si>
-  <si>
-    <t>NCT02099214</t>
-  </si>
-  <si>
-    <t>NCT02125110</t>
-  </si>
-  <si>
-    <t>NCT01677078</t>
-  </si>
-  <si>
-    <t>NCT02492529</t>
-  </si>
-  <si>
-    <t>NCT01789008</t>
-  </si>
-  <si>
-    <t>NCT02662322</t>
-  </si>
-  <si>
-    <t>NCT03651960</t>
+    <t>NCT03484052</t>
+  </si>
+  <si>
+    <t>NCT01949467</t>
+  </si>
+  <si>
+    <t>NCT02753387</t>
+  </si>
+  <si>
+    <t>NCT02857205</t>
+  </si>
+  <si>
+    <t>NCT02528032</t>
+  </si>
+  <si>
+    <t>NCT02990195</t>
+  </si>
+  <si>
+    <t>NCT02398474</t>
+  </si>
+  <si>
+    <t>NCT01148069</t>
+  </si>
+  <si>
+    <t>NCT02041169</t>
+  </si>
+  <si>
+    <t>NCT02465970</t>
+  </si>
+  <si>
+    <t>NCT01973478</t>
+  </si>
+  <si>
+    <t>NCT03174327</t>
+  </si>
+  <si>
+    <t>NCT01282593</t>
+  </si>
+  <si>
+    <t>NCT02594956</t>
   </si>
   <si>
     <t>NCT01388387</t>
   </si>
   <si>
-    <t>NCT01148069</t>
-  </si>
-  <si>
-    <t>NCT02594956</t>
-  </si>
-  <si>
-    <t>NCT02857205</t>
-  </si>
-  <si>
-    <t>NCT01282593</t>
-  </si>
-  <si>
-    <t>NCT01973478</t>
-  </si>
-  <si>
-    <t>NCT03484052</t>
-  </si>
-  <si>
-    <t>NCT02990195</t>
-  </si>
-  <si>
-    <t>NCT02528032</t>
-  </si>
-  <si>
-    <t>NCT02753387</t>
-  </si>
-  <si>
-    <t>NCT03174327</t>
-  </si>
-  <si>
-    <t>NCT02465970</t>
-  </si>
-  <si>
-    <t>NCT01949467</t>
-  </si>
-  <si>
-    <t>NCT02398474</t>
-  </si>
-  <si>
-    <t>NCT02041169</t>
+    <t>NCT03267927</t>
+  </si>
+  <si>
+    <t>NCT03818750</t>
+  </si>
+  <si>
+    <t>NCT04079244</t>
+  </si>
+  <si>
+    <t>NCT03046199</t>
+  </si>
+  <si>
+    <t>NCT03638921</t>
+  </si>
+  <si>
+    <t>NCT03076489</t>
+  </si>
+  <si>
+    <t>NCT03673189</t>
+  </si>
+  <si>
+    <t>NCT03828968</t>
+  </si>
+  <si>
+    <t>NCT02884440</t>
+  </si>
+  <si>
+    <t>NCT02966847</t>
+  </si>
+  <si>
+    <t>NCT01677091</t>
+  </si>
+  <si>
+    <t>NCT02361450</t>
   </si>
   <si>
     <t>NCT03279913</t>
   </si>
   <si>
-    <t>NCT01677091</t>
-  </si>
-  <si>
-    <t>NCT03828968</t>
-  </si>
-  <si>
-    <t>NCT03267927</t>
-  </si>
-  <si>
-    <t>NCT03818750</t>
-  </si>
-  <si>
-    <t>NCT03076489</t>
-  </si>
-  <si>
-    <t>NCT04079244</t>
-  </si>
-  <si>
-    <t>NCT03046199</t>
+    <t>NCT02400047</t>
   </si>
   <si>
     <t>NCT01810965</t>
   </si>
   <si>
-    <t>NCT02400047</t>
-  </si>
-  <si>
     <t>NCT03376074</t>
   </si>
   <si>
-    <t>NCT03638921</t>
-  </si>
-  <si>
-    <t>NCT03673189</t>
-  </si>
-  <si>
-    <t>NCT02361450</t>
-  </si>
-  <si>
-    <t>NCT02884440</t>
-  </si>
-  <si>
-    <t>NCT02966847</t>
+    <t>NCT01613638</t>
+  </si>
+  <si>
+    <t>NCT02470247</t>
+  </si>
+  <si>
+    <t>NCT02650609</t>
+  </si>
+  <si>
+    <t>NCT02599493</t>
+  </si>
+  <si>
+    <t>NCT04416308</t>
+  </si>
+  <si>
+    <t>NCT02937285</t>
+  </si>
+  <si>
+    <t>NCT02822144</t>
+  </si>
+  <si>
+    <t>NCT03942432</t>
+  </si>
+  <si>
+    <t>NCT03200457</t>
+  </si>
+  <si>
+    <t>NCT02864017</t>
+  </si>
+  <si>
+    <t>NCT04455308</t>
   </si>
   <si>
     <t>NCT03110094</t>
   </si>
   <si>
-    <t>NCT03200457</t>
-  </si>
-  <si>
-    <t>NCT02822144</t>
-  </si>
-  <si>
-    <t>NCT02650609</t>
-  </si>
-  <si>
-    <t>NCT02864017</t>
-  </si>
-  <si>
-    <t>NCT03942432</t>
-  </si>
-  <si>
-    <t>NCT01613638</t>
-  </si>
-  <si>
     <t>NCT02802397</t>
   </si>
   <si>
-    <t>NCT04455308</t>
-  </si>
-  <si>
     <t>NCT02212483</t>
   </si>
   <si>
-    <t>NCT04416308</t>
-  </si>
-  <si>
-    <t>NCT02470247</t>
-  </si>
-  <si>
-    <t>NCT02599493</t>
-  </si>
-  <si>
-    <t>NCT02937285</t>
+    <t>NCT02900339</t>
+  </si>
+  <si>
+    <t>NCT04404426</t>
+  </si>
+  <si>
+    <t>NCT05891522</t>
   </si>
   <si>
     <t>NCT03372174</t>
   </si>
   <si>
+    <t>NCT04771091</t>
+  </si>
+  <si>
+    <t>NCT04373200</t>
+  </si>
+  <si>
+    <t>NCT03140644</t>
+  </si>
+  <si>
+    <t>NCT03030170</t>
+  </si>
+  <si>
+    <t>NCT03454711</t>
+  </si>
+  <si>
+    <t>NCT03396770</t>
+  </si>
+  <si>
     <t>NCT04235972</t>
   </si>
   <si>
-    <t>NCT05891522</t>
-  </si>
-  <si>
-    <t>NCT04404426</t>
-  </si>
-  <si>
-    <t>NCT02900339</t>
-  </si>
-  <si>
-    <t>NCT03454711</t>
-  </si>
-  <si>
     <t>NCT04742465</t>
   </si>
   <si>
-    <t>NCT04771091</t>
-  </si>
-  <si>
     <t>NCT04473742</t>
   </si>
   <si>
-    <t>NCT04373200</t>
-  </si>
-  <si>
-    <t>NCT03030170</t>
-  </si>
-  <si>
-    <t>NCT03396770</t>
-  </si>
-  <si>
-    <t>NCT03140644</t>
-  </si>
-  <si>
     <t>NCT04211220</t>
   </si>
   <si>
+    <t>NCT05234216</t>
+  </si>
+  <si>
     <t>NCT04539899</t>
   </si>
   <si>
+    <t>NCT03693872</t>
+  </si>
+  <si>
+    <t>NCT03805997</t>
+  </si>
+  <si>
+    <t>NCT03570385</t>
+  </si>
+  <si>
+    <t>NCT03351361</t>
+  </si>
+  <si>
+    <t>NCT04129333</t>
+  </si>
+  <si>
+    <t>NCT03481686</t>
+  </si>
+  <si>
+    <t>NCT03795103</t>
+  </si>
+  <si>
     <t>NCT03291977</t>
   </si>
   <si>
     <t>NCT04624347</t>
   </si>
   <si>
-    <t>NCT03351361</t>
-  </si>
-  <si>
-    <t>NCT03570385</t>
-  </si>
-  <si>
     <t>NCT04001556</t>
   </si>
   <si>
-    <t>NCT04129333</t>
-  </si>
-  <si>
-    <t>NCT03693872</t>
-  </si>
-  <si>
-    <t>NCT03805997</t>
-  </si>
-  <si>
-    <t>NCT03795103</t>
-  </si>
-  <si>
-    <t>NCT05234216</t>
-  </si>
-  <si>
-    <t>NCT03481686</t>
+    <t>NCT03744351</t>
+  </si>
+  <si>
+    <t>NCT03807167</t>
+  </si>
+  <si>
+    <t>NCT04466800</t>
+  </si>
+  <si>
+    <t>NCT05255952</t>
+  </si>
+  <si>
+    <t>NCT04872023</t>
+  </si>
+  <si>
+    <t>NCT04562207</t>
+  </si>
+  <si>
+    <t>NCT03436823</t>
   </si>
   <si>
     <t>NCT04489134</t>
   </si>
   <si>
-    <t>NCT03436823</t>
-  </si>
-  <si>
-    <t>NCT04562207</t>
-  </si>
-  <si>
-    <t>NCT03744351</t>
+    <t>NCT02537509</t>
   </si>
   <si>
     <t>NCT04130711</t>
   </si>
   <si>
-    <t>NCT02537509</t>
-  </si>
-  <si>
-    <t>NCT04872023</t>
-  </si>
-  <si>
-    <t>NCT05255952</t>
-  </si>
-  <si>
     <t>NCT04697407</t>
   </si>
   <si>
-    <t>NCT03807167</t>
-  </si>
-  <si>
-    <t>NCT04466800</t>
-  </si>
-  <si>
     <t>NCT04646811</t>
   </si>
   <si>
@@ -499,15 +499,15 @@
     <t>2006-006353-27</t>
   </si>
   <si>
+    <t>2021-000826-89</t>
+  </si>
+  <si>
+    <t>2020-001655-41</t>
+  </si>
+  <si>
     <t>2015-000881-73</t>
   </si>
   <si>
-    <t>2020-001655-41</t>
-  </si>
-  <si>
-    <t>2021-000826-89</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -565,21 +565,21 @@
     <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
   </si>
   <si>
+    <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
+  </si>
+  <si>
     <t>Prospective, Randomized, Simple Blind Study Comparing the Effects of an Anaesthesia With Propofol to an Anaesthesia With Desflurane on Oxydative Stress and Liver Function Recovery After Hepatectomy</t>
   </si>
   <si>
+    <t>Cytochrome P450 2E1 and Iron Overload</t>
+  </si>
+  <si>
     <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
   </si>
   <si>
-    <t>Cytochrome P450 2E1 and Iron Overload</t>
-  </si>
-  <si>
     <t>Interest of a Treatment With the alpha1-blocker Tamsulosin in the Elimination of Pelvis Ureteral Stones</t>
   </si>
   <si>
-    <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
-  </si>
-  <si>
     <t>Prospective, Randomized, Double-blind, Placebo-controlled Study on Parallel Groups Evaluating the Efficacy and Safety of Cranberry (Vaccinium Macrocarpon) in Prevention of Urinary Tract Infections in Multiple Sclerosis Patients.</t>
   </si>
   <si>
@@ -601,43 +601,55 @@
     <t>Evaluation of Electrostimulation Program During Dialysis Sessions in Chronic Renal Failure Patients</t>
   </si>
   <si>
+    <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
+  </si>
+  <si>
+    <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
+  </si>
+  <si>
     <t>Melatonin Dose-effect Relation in Childhood Autism</t>
   </si>
   <si>
-    <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
-  </si>
-  <si>
     <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
   </si>
   <si>
-    <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
-  </si>
-  <si>
     <t>Prospective, Monocentric, Crossover Randomized Trial, to Assess a New Closed-loop Algorithm in Type 1 Diabetes (Saddle Point Model Predictive Control : SP-MPC)</t>
   </si>
   <si>
     <t>Effet de la stimulation dopaminergique continue par pompe à apomorphine sur les fluctuations cognitives et psychiques des patients parkinsoniens: étude clinique et métabolique cérébrale par TEP au 18FDG</t>
   </si>
   <si>
+    <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
+  </si>
+  <si>
+    <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
+  </si>
+  <si>
     <t>Evaluation of Body Iron Stores in Overweight Healthy Volunteers</t>
   </si>
   <si>
-    <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
-  </si>
-  <si>
-    <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
-  </si>
-  <si>
     <t>This is a Non-randomized, Single-center, Prospective Investigation on Exercise Capacities of Left Ventricular Assist Devices Recipients</t>
   </si>
   <si>
+    <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
+  </si>
+  <si>
+    <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
+  </si>
+  <si>
+    <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
+  </si>
+  <si>
+    <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
+  </si>
+  <si>
+    <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
+  </si>
+  <si>
     <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
   </si>
   <si>
-    <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
-  </si>
-  <si>
-    <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
+    <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
   </si>
   <si>
     <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
@@ -646,121 +658,136 @@
     <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
   </si>
   <si>
-    <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
-  </si>
-  <si>
-    <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
-  </si>
-  <si>
-    <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
+    <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
+  </si>
+  <si>
+    <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
+  </si>
+  <si>
+    <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
   </si>
   <si>
     <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
   </si>
   <si>
-    <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
+    <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
+  </si>
+  <si>
+    <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
+  </si>
+  <si>
+    <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
   </si>
   <si>
     <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
   </si>
   <si>
-    <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
-  </si>
-  <si>
-    <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
-  </si>
-  <si>
-    <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
-  </si>
-  <si>
-    <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
-  </si>
-  <si>
-    <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
+    <t>Interest of Transient Elastography in the Determination of Advanced Fibrosis in Alcoholic Liver Didease in Alcoholic Patients in Weaning.</t>
+  </si>
+  <si>
+    <t>Estimation of Myocardial Iron Overload by 3 Tesla MRI and Cardiac Functional Consequences in Patients With HFE Hereditary Haemochromatosis. Pilot Study</t>
+  </si>
+  <si>
+    <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
+  </si>
+  <si>
+    <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
+  </si>
+  <si>
+    <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
+  </si>
+  <si>
+    <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
+  </si>
+  <si>
+    <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
+  </si>
+  <si>
+    <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
   </si>
   <si>
     <t>Estimation of Carbohydrate Metabolism Disorder Frequency in Hypertriglyceridemia Induced by Bexarotene Treatment of Cutaneous T Cell Lymphoma - Pilote Study</t>
   </si>
   <si>
-    <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
-  </si>
-  <si>
-    <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
-  </si>
-  <si>
-    <t>Estimation of Myocardial Iron Overload by 3 Tesla MRI and Cardiac Functional Consequences in Patients With HFE Hereditary Haemochromatosis. Pilot Study</t>
-  </si>
-  <si>
-    <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
-  </si>
-  <si>
-    <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
-  </si>
-  <si>
-    <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>Interest of Transient Elastography in the Determination of Advanced Fibrosis in Alcoholic Liver Didease in Alcoholic Patients in Weaning.</t>
-  </si>
-  <si>
-    <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
-  </si>
-  <si>
-    <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
+    <t>Place of Jugular Ultrasound in the Evaluation of the Volemia by a Clinician Doctor in Routine Care (JUVIA)</t>
+  </si>
+  <si>
+    <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
+  </si>
+  <si>
+    <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
+  </si>
+  <si>
+    <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
+  </si>
+  <si>
+    <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
+  </si>
+  <si>
+    <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
+  </si>
+  <si>
+    <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
+  </si>
+  <si>
+    <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
+  </si>
+  <si>
+    <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
+  </si>
+  <si>
+    <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
+  </si>
+  <si>
+    <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
+  </si>
+  <si>
+    <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
+  </si>
+  <si>
+    <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
+  </si>
+  <si>
+    <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
   </si>
   <si>
     <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
   </si>
   <si>
-    <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
-  </si>
-  <si>
-    <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
-  </si>
-  <si>
-    <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
-  </si>
-  <si>
-    <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
-  </si>
-  <si>
-    <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
-  </si>
-  <si>
-    <t>Place of Jugular Ultrasound in the Evaluation of the Volemia by a Clinician Doctor in Routine Care (JUVIA)</t>
-  </si>
-  <si>
-    <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
-  </si>
-  <si>
-    <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
-  </si>
-  <si>
-    <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
-  </si>
-  <si>
-    <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
-  </si>
-  <si>
-    <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
-  </si>
-  <si>
-    <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
-  </si>
-  <si>
-    <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
-  </si>
-  <si>
-    <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
-  </si>
-  <si>
-    <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
+    <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
+  </si>
+  <si>
+    <t>Impact of Marketing of Alcohol Products on Young People</t>
+  </si>
+  <si>
+    <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
+  </si>
+  <si>
+    <t>Detection of COPD in Primary Care</t>
+  </si>
+  <si>
+    <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
+  </si>
+  <si>
+    <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
+  </si>
+  <si>
+    <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
+  </si>
+  <si>
+    <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
+  </si>
+  <si>
+    <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
+  </si>
+  <si>
+    <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
   </si>
   <si>
     <t>Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure. 
@@ -770,231 +797,204 @@
     <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
   </si>
   <si>
-    <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
-  </si>
-  <si>
-    <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
-  </si>
-  <si>
-    <t>Impact of Marketing of Alcohol Products on Young People</t>
-  </si>
-  <si>
-    <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
-  </si>
-  <si>
-    <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
-  </si>
-  <si>
-    <t>Detection of COPD in Primary Care</t>
+    <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
+  </si>
+  <si>
+    <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
   </si>
   <si>
     <t>Impact of Bloodletting on Iron Metabolism in Type 1 Hemochromatosis: Pathophysiological and Clinical Implications. Pilot Study.</t>
   </si>
   <si>
-    <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
-  </si>
-  <si>
     <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
   </si>
   <si>
-    <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
-  </si>
-  <si>
-    <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
-  </si>
-  <si>
-    <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
+    <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
+  </si>
+  <si>
+    <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
+  </si>
+  <si>
+    <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
+  </si>
+  <si>
+    <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
+  </si>
+  <si>
+    <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
+  </si>
+  <si>
+    <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
+  </si>
+  <si>
+    <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
+  </si>
+  <si>
+    <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
+  </si>
+  <si>
+    <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
+  </si>
+  <si>
+    <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
   </si>
   <si>
     <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
   </si>
   <si>
-    <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
-  </si>
-  <si>
-    <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
-  </si>
-  <si>
-    <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
-  </si>
-  <si>
-    <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
-  </si>
-  <si>
-    <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
-  </si>
-  <si>
-    <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
-  </si>
-  <si>
     <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
   </si>
   <si>
-    <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
-  </si>
-  <si>
     <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
   </si>
   <si>
-    <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
-  </si>
-  <si>
-    <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
-  </si>
-  <si>
-    <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
-  </si>
-  <si>
-    <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
+    <t>MRI Sequences Optimization in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>CACOLAC : Randomized Trial of Citrulline Administration in the Hospital Patient in Intensive Care for COVID-19 Acute Respiratory Distress Syndrome</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Use of a Portable Cranial Scanner in Intensive Care for Cerebro-injured Patients</t>
   </si>
   <si>
     <t>Beneficial Effects on Maintaining Mechanical Ventilation During Cardiopulmonary Bypass for Cardiac Surgery on Postoperative Infections</t>
   </si>
   <si>
-    <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
-  </si>
-  <si>
-    <t>Pilot Study of the Use of a Portable Cranial Scanner in Intensive Care for Cerebro-injured Patients</t>
-  </si>
-  <si>
-    <t>CACOLAC : Randomized Trial of Citrulline Administration in the Hospital Patient in Intensive Care for COVID-19 Acute Respiratory Distress Syndrome</t>
-  </si>
-  <si>
-    <t>MRI Sequences Optimization in Healthy Subjects</t>
+    <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
+  </si>
+  <si>
+    <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
+  </si>
+  <si>
+    <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
+  </si>
+  <si>
+    <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
   </si>
   <si>
     <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
-  </si>
-  <si>
-    <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
-  </si>
-  <si>
-    <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
-  </si>
-  <si>
-    <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
-  </si>
-  <si>
-    <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
-  </si>
-  <si>
-    <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
-  </si>
-  <si>
-    <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
   </si>
   <si>
     <t>Randomised phase III study testing nivolumab and ipilimumab versus a_x000D_ carboplatin based doublet in first line treatment of PS 2 or elderly (more_x000D_ than 70 years old) patients with advanced non-small cell lung cancer 
  Etude randomisée de phase III testant l'association nivolumab et_x000D_ ipilimumab versus un doublet à base de carboplatine dans le traitement de première ligne du CBNPC chez des patients PS 2 ou de plus de 70 ans</t>
   </si>
   <si>
+    <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
+  </si>
+  <si>
+    <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
+  </si>
+  <si>
+    <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
+  </si>
+  <si>
     <t>Clinical Evaluation of Insulin Real-Time Advisor (IRTA©): a Decision Support Software for Insulin Therapy Combined With Freestyle Libre®, a Continuous Glucose Monitoring System: Glycemic Impact and Satisfaction in Type 1 Diabetic Patients</t>
   </si>
   <si>
+    <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
+  </si>
+  <si>
     <t>Evaluation of the Influence of the Virtual Reality Helmet on Pain During IUD Insertion : REAVIST</t>
   </si>
   <si>
-    <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
-  </si>
-  <si>
-    <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
-  </si>
-  <si>
-    <t>Randomized Phase III Study Testing Nivolumab and Ipilimumab Versus a Carboplatin Based Doublet in First Line Treatment of PS 2 or Elderly (More Than 70 Years Old) Patients With Advanced Non-small Cell Lung Cancer</t>
+    <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
+  </si>
+  <si>
+    <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
   </si>
   <si>
     <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
-  </si>
-  <si>
-    <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
-  </si>
-  <si>
-    <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
-  </si>
-  <si>
-    <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
-  </si>
-  <si>
-    <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
-  </si>
-  <si>
-    <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
   </si>
   <si>
     <t>Immunomonitoring and multiple myeloma: impact of lenalidomide on immune checkpoint expression 
  Immunomonitoring et myélome multiple: impact du lénalidomide sur l'expression des immune checkpoint</t>
   </si>
   <si>
+    <t>Randomized Phase III Study Testing Nivolumab and Ipilimumab Versus a Carboplatin Based Doublet in First Line Treatment of PS 2 or Elderly (More Than 70 Years Old) Patients With Advanced Non-small Cell Lung Cancer</t>
+  </si>
+  <si>
+    <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
+  </si>
+  <si>
     <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
   </si>
   <si>
+    <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
+  </si>
+  <si>
+    <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
+  </si>
+  <si>
+    <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
+  </si>
+  <si>
+    <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
+  </si>
+  <si>
+    <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
+  </si>
+  <si>
+    <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
+  </si>
+  <si>
+    <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
+  </si>
+  <si>
+    <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
+  </si>
+  <si>
     <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
   </si>
   <si>
-    <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
-  </si>
-  <si>
-    <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
-  </si>
-  <si>
-    <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
+    <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
   </si>
   <si>
     <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
   </si>
   <si>
-    <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
-  </si>
-  <si>
-    <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
-  </si>
-  <si>
-    <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
-  </si>
-  <si>
     <t>BREGS - IL-2 Signaling and Polarization of Regulatory LBs: Involvement in Multiple Sclerosis</t>
   </si>
   <si>
-    <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
-  </si>
-  <si>
-    <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
-  </si>
-  <si>
     <t>TRI-FR : Multicentric Randomized Evaluation of Tricuspid Valve Percutaneous Repair System (Clip for the Tricuspid Valve) in the Treatment of Severe Secondary Tricuspid Disorders</t>
   </si>
   <si>
-    <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
-  </si>
-  <si>
-    <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
-  </si>
-  <si>
     <t>Etude prospective, randomisée, en double aveugle, comparant l'effet d'une décontamination oro-pharyngée par la povidone-iodée à un placebo sur la réduction des pneumopathies acquises sous ventilation chez les patients traumatisés crâniens graves.</t>
+  </si>
+  <si>
+    <t>Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement 
+ Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement</t>
+  </si>
+  <si>
+    <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
+ Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
   </si>
   <si>
     <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
  Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
   </si>
   <si>
-    <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
- Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
-  </si>
-  <si>
-    <t>Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement 
- Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement</t>
+    <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
+  </si>
+  <si>
+    <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
   </si>
   <si>
     <t>TRANSPEG</t>
@@ -1021,49 +1021,61 @@
     <t>EMS-Dialyse</t>
   </si>
   <si>
+    <t>SURFER</t>
+  </si>
+  <si>
+    <t>esogia</t>
+  </si>
+  <si>
     <t>MELADOSE</t>
   </si>
   <si>
-    <t>SURFER</t>
-  </si>
-  <si>
     <t>IPRA</t>
   </si>
   <si>
-    <t>esogia</t>
-  </si>
-  <si>
     <t>PPA</t>
   </si>
   <si>
     <t>APO TEP</t>
   </si>
   <si>
+    <t>KitMel</t>
+  </si>
+  <si>
+    <t>PACMoG</t>
+  </si>
+  <si>
+    <t>ESOGIA</t>
+  </si>
+  <si>
     <t>FERNORM</t>
   </si>
   <si>
-    <t>PACMoG</t>
-  </si>
-  <si>
-    <t>KitMel</t>
-  </si>
-  <si>
-    <t>ESOGIA</t>
-  </si>
-  <si>
     <t>REVADE</t>
   </si>
   <si>
+    <t>SAINPOS</t>
+  </si>
+  <si>
+    <t>Shortystrap</t>
+  </si>
+  <si>
+    <t>ATCF</t>
+  </si>
+  <si>
+    <t>APO-TEP</t>
+  </si>
+  <si>
+    <t>BRAINGRAPH</t>
+  </si>
+  <si>
+    <t>DELI-DEVI</t>
+  </si>
+  <si>
     <t>ALTERVOL</t>
   </si>
   <si>
-    <t>BRAINGRAPH</t>
-  </si>
-  <si>
-    <t>Shortystrap</t>
-  </si>
-  <si>
-    <t>ATCF</t>
+    <t>SAIGNEES</t>
   </si>
   <si>
     <t>FIRBladd</t>
@@ -1072,334 +1084,322 @@
     <t>VIBR-AVC</t>
   </si>
   <si>
-    <t>SAINPOS</t>
-  </si>
-  <si>
-    <t>SAIGNEES</t>
-  </si>
-  <si>
-    <t>APO-TEP</t>
-  </si>
-  <si>
-    <t>DELI-DEVI</t>
+    <t>EVIC-AVC</t>
+  </si>
+  <si>
+    <t>AFLUCO4</t>
+  </si>
+  <si>
+    <t>EQHEM</t>
+  </si>
+  <si>
+    <t>PEDIMA</t>
   </si>
   <si>
     <t>PSI-PUC</t>
   </si>
   <si>
-    <t>EQHEM</t>
+    <t>SEPTAL-PM</t>
+  </si>
+  <si>
+    <t>ARCHILACT</t>
+  </si>
+  <si>
+    <t>conneXion</t>
   </si>
   <si>
     <t>FLUO-POP</t>
   </si>
   <si>
-    <t>EVIC-AVC</t>
-  </si>
-  <si>
-    <t>conneXion</t>
-  </si>
-  <si>
-    <t>PEDIMA</t>
-  </si>
-  <si>
-    <t>AFLUCO4</t>
-  </si>
-  <si>
-    <t>ARCHILACT</t>
-  </si>
-  <si>
-    <t>SEPTAL-PM</t>
+    <t>FIBR-OH</t>
+  </si>
+  <si>
+    <t>HEMOCOEUR</t>
+  </si>
+  <si>
+    <t>PERINE</t>
+  </si>
+  <si>
+    <t>EPMR-MA</t>
+  </si>
+  <si>
+    <t>ESPHALL</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>KTHYPE</t>
+  </si>
+  <si>
+    <t>ROBO-K</t>
+  </si>
+  <si>
+    <t>PC MIROIR</t>
   </si>
   <si>
     <t>TgBEX</t>
   </si>
   <si>
-    <t>PC MIROIR</t>
-  </si>
-  <si>
-    <t>ESPHALL</t>
-  </si>
-  <si>
-    <t>HEMOCOEUR</t>
-  </si>
-  <si>
-    <t>PERINE</t>
-  </si>
-  <si>
-    <t>TMS</t>
-  </si>
-  <si>
-    <t>EPMR-MA</t>
-  </si>
-  <si>
-    <t>FIBR-OH</t>
-  </si>
-  <si>
-    <t>KTHYPE</t>
-  </si>
-  <si>
-    <t>ROBO-K</t>
+    <t>JUVIA</t>
+  </si>
+  <si>
+    <t>ORAL-ISO</t>
+  </si>
+  <si>
+    <t>MICROPRUNG</t>
+  </si>
+  <si>
+    <t>RICART</t>
+  </si>
+  <si>
+    <t>RESCUE</t>
+  </si>
+  <si>
+    <t>TFP</t>
   </si>
   <si>
     <t>TARGET</t>
   </si>
   <si>
+    <t>CLASH</t>
+  </si>
+  <si>
+    <t>BRAINSTIM</t>
+  </si>
+  <si>
+    <t>STHYM</t>
+  </si>
+  <si>
+    <t>SUPERSONIC</t>
+  </si>
+  <si>
+    <t>LAL TEL/ALM1</t>
+  </si>
+  <si>
     <t>IPOD</t>
   </si>
   <si>
-    <t>MICROPRUNG</t>
-  </si>
-  <si>
-    <t>LAL TEL/ALM1</t>
-  </si>
-  <si>
-    <t>STHYM</t>
-  </si>
-  <si>
-    <t>JUVIA</t>
-  </si>
-  <si>
-    <t>RESCUE</t>
-  </si>
-  <si>
-    <t>RICART</t>
-  </si>
-  <si>
-    <t>ORAL-ISO</t>
-  </si>
-  <si>
-    <t>SUPERSONIC</t>
-  </si>
-  <si>
-    <t>BRAINSTIM</t>
-  </si>
-  <si>
-    <t>TFP</t>
-  </si>
-  <si>
-    <t>CLASH</t>
+    <t>SAOS</t>
+  </si>
+  <si>
+    <t>IMAJ</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>DISCO</t>
+  </si>
+  <si>
+    <t>NEPHROPAIN</t>
+  </si>
+  <si>
+    <t>Hed-O-Shift</t>
+  </si>
+  <si>
+    <t>SHERPAM</t>
+  </si>
+  <si>
+    <t>RUC EHPAD</t>
+  </si>
+  <si>
+    <t>TAP ALIF</t>
+  </si>
+  <si>
+    <t>CAVIT</t>
+  </si>
+  <si>
+    <t>AVCPOSTIM</t>
+  </si>
+  <si>
+    <t>IRRICO</t>
   </si>
   <si>
     <t>NEUROFEEDSTIM</t>
   </si>
   <si>
-    <t>TAP ALIF</t>
-  </si>
-  <si>
-    <t>AVCPOSTIM</t>
-  </si>
-  <si>
-    <t>RUC EHPAD</t>
-  </si>
-  <si>
-    <t>SAOS</t>
-  </si>
-  <si>
-    <t>IMAJ</t>
-  </si>
-  <si>
-    <t>Hed-O-Shift</t>
-  </si>
-  <si>
-    <t>ALFA</t>
-  </si>
-  <si>
-    <t>DISCO</t>
+    <t>DEXA OP</t>
   </si>
   <si>
     <t>SAIFER</t>
   </si>
   <si>
-    <t>DEXA OP</t>
-  </si>
-  <si>
     <t>PERPHO</t>
   </si>
   <si>
-    <t>NEPHROPAIN</t>
-  </si>
-  <si>
-    <t>SHERPAM</t>
-  </si>
-  <si>
-    <t>IRRICO</t>
-  </si>
-  <si>
-    <t>CAVIT</t>
+    <t>PENEW</t>
+  </si>
+  <si>
+    <t>IPC-Angio</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>EVRIOS</t>
+  </si>
+  <si>
+    <t>AntiCoV-HB</t>
+  </si>
+  <si>
+    <t>MITOX-REBIF</t>
+  </si>
+  <si>
+    <t>GASS</t>
+  </si>
+  <si>
+    <t>EvoHSD</t>
+  </si>
+  <si>
+    <t>HEMOCOMPARE</t>
+  </si>
+  <si>
+    <t>Immunocitre</t>
+  </si>
+  <si>
+    <t>ECCES</t>
   </si>
   <si>
     <t>PROMETHEE</t>
   </si>
   <si>
-    <t>HEMOCOMPARE</t>
-  </si>
-  <si>
-    <t>GASS</t>
-  </si>
-  <si>
-    <t>SUCRE</t>
-  </si>
-  <si>
-    <t>Immunocitre</t>
-  </si>
-  <si>
-    <t>EvoHSD</t>
-  </si>
-  <si>
-    <t>PENEW</t>
-  </si>
-  <si>
     <t>AROPE</t>
   </si>
   <si>
-    <t>ECCES</t>
-  </si>
-  <si>
     <t>ECENVIR</t>
   </si>
   <si>
-    <t>AntiCoV-HB</t>
-  </si>
-  <si>
-    <t>IPC-Angio</t>
-  </si>
-  <si>
-    <t>EVRIOS</t>
-  </si>
-  <si>
-    <t>MITOX-REBIF</t>
+    <t>OSS-IRM</t>
+  </si>
+  <si>
+    <t>CACOLAC</t>
+  </si>
+  <si>
+    <t>ESPER</t>
   </si>
   <si>
     <t>VECAR</t>
   </si>
   <si>
-    <t>ESWWA</t>
-  </si>
-  <si>
-    <t>ESPER</t>
-  </si>
-  <si>
-    <t>CACOLAC</t>
-  </si>
-  <si>
-    <t>OSS-IRM</t>
+    <t>EchoPé</t>
+  </si>
+  <si>
+    <t>HARMONICOV</t>
+  </si>
+  <si>
+    <t>SARCOLOWDOSE</t>
+  </si>
+  <si>
+    <t>REPLAY</t>
   </si>
   <si>
     <t>AddictO</t>
-  </si>
-  <si>
-    <t>ARIADE</t>
-  </si>
-  <si>
-    <t>EchoPé</t>
-  </si>
-  <si>
-    <t>MacFibOsis</t>
-  </si>
-  <si>
-    <t>HARMONICOV</t>
-  </si>
-  <si>
-    <t>REPLAY</t>
-  </si>
-  <si>
-    <t>NEPHROCAR</t>
-  </si>
-  <si>
-    <t>SARCOLOWDOSE</t>
   </si>
   <si>
     <t>Lena eNERGY 
  Lena eNERGY</t>
   </si>
   <si>
+    <t>NEPHROCAR</t>
+  </si>
+  <si>
+    <t>ESWWA</t>
+  </si>
+  <si>
+    <t>ARIADE</t>
+  </si>
+  <si>
+    <t>MacFibOsis</t>
+  </si>
+  <si>
     <t>IRTA</t>
   </si>
   <si>
+    <t>COMFORT</t>
+  </si>
+  <si>
     <t>REAVIST</t>
   </si>
   <si>
+    <t>AGAPO</t>
+  </si>
+  <si>
+    <t>ALLAITEMENT</t>
+  </si>
+  <si>
+    <t>DTI et NOI</t>
+  </si>
+  <si>
+    <t>IMMUNO-MYELO</t>
+  </si>
+  <si>
+    <t>eNERGY</t>
+  </si>
+  <si>
+    <t>HYPIC</t>
+  </si>
+  <si>
+    <t>SELFEPO</t>
+  </si>
+  <si>
+    <t>ELECTROPAD</t>
+  </si>
+  <si>
     <t>FLEGME</t>
   </si>
   <si>
-    <t>eNERGY</t>
-  </si>
-  <si>
-    <t>DTI et NOI</t>
-  </si>
-  <si>
     <t>REUSSI-SSc</t>
   </si>
   <si>
-    <t>HYPIC</t>
-  </si>
-  <si>
-    <t>AGAPO</t>
-  </si>
-  <si>
-    <t>ALLAITEMENT</t>
-  </si>
-  <si>
-    <t>ELECTROPAD</t>
-  </si>
-  <si>
-    <t>COMFORT</t>
-  </si>
-  <si>
-    <t>IMMUNO-MYELO</t>
-  </si>
-  <si>
-    <t>SELFEPO</t>
+    <t>ABCD-SEP</t>
+  </si>
+  <si>
+    <t>ACTIDEP</t>
+  </si>
+  <si>
+    <t>RECOVER-19</t>
+  </si>
+  <si>
+    <t>EpiCANS</t>
+  </si>
+  <si>
+    <t>VIRUS-ATTAC</t>
+  </si>
+  <si>
+    <t>DESTIMCARE</t>
   </si>
   <si>
     <t>DIPLOID</t>
   </si>
   <si>
-    <t>DESTIMCARE</t>
-  </si>
-  <si>
-    <t>VIRUS-ATTAC</t>
-  </si>
-  <si>
-    <t>ABCD-SEP</t>
+    <t>PRADA</t>
   </si>
   <si>
     <t>HANDS</t>
   </si>
   <si>
-    <t>PRADA</t>
-  </si>
-  <si>
-    <t>EpiCANS</t>
-  </si>
-  <si>
     <t>BREGS</t>
   </si>
   <si>
-    <t>ACTIDEP</t>
-  </si>
-  <si>
-    <t>RECOVER-19</t>
-  </si>
-  <si>
     <t>TRI-FR</t>
   </si>
   <si>
-    <t>EUROFILLING</t>
-  </si>
-  <si>
     <t>SPIRIT</t>
+  </si>
+  <si>
+    <t>PHARM-APO</t>
+  </si>
+  <si>
+    <t>DIPLOID 
+ DIPLOID</t>
   </si>
   <si>
     <t>PRADA 
  PRADA</t>
   </si>
   <si>
-    <t>DIPLOID 
- DIPLOID</t>
-  </si>
-  <si>
-    <t>PHARM-APO</t>
+    <t>EUROFILLING</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -1873,7 +1873,7 @@
         <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1892,9 +1892,6 @@
       <c r="G5" t="s">
         <v>184</v>
       </c>
-      <c r="H5" t="s">
-        <v>325</v>
-      </c>
       <c r="I5" t="s">
         <v>460</v>
       </c>
@@ -1921,10 +1918,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1936,7 +1933,7 @@
         <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>460</v>
@@ -1944,10 +1941,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1958,8 +1955,11 @@
       <c r="G8" t="s">
         <v>187</v>
       </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
       <c r="I8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2122,10 +2122,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -2140,7 +2140,7 @@
         <v>333</v>
       </c>
       <c r="I16" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2150,8 +2150,8 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="D17" t="s">
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>169</v>
@@ -2162,19 +2162,16 @@
       <c r="H17" t="s">
         <v>334</v>
       </c>
-      <c r="I17" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>169</v>
@@ -2186,18 +2183,18 @@
         <v>335</v>
       </c>
       <c r="I18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>169</v>
@@ -2207,6 +2204,9 @@
       </c>
       <c r="H19" t="s">
         <v>336</v>
+      </c>
+      <c r="I19" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2300,10 +2300,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2311,22 +2311,19 @@
       <c r="F24" t="s">
         <v>170</v>
       </c>
-      <c r="G24" t="s">
-        <v>203</v>
-      </c>
       <c r="H24" t="s">
         <v>341</v>
       </c>
       <c r="I24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2334,11 +2331,14 @@
       <c r="F25" t="s">
         <v>170</v>
       </c>
+      <c r="G25" t="s">
+        <v>203</v>
+      </c>
       <c r="H25" t="s">
         <v>342</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2384,15 +2384,15 @@
         <v>344</v>
       </c>
       <c r="I27" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -2400,22 +2400,19 @@
       <c r="F28" t="s">
         <v>171</v>
       </c>
-      <c r="G28" t="s">
-        <v>206</v>
-      </c>
       <c r="H28" t="s">
         <v>345</v>
       </c>
       <c r="I28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2423,19 +2420,22 @@
       <c r="F29" t="s">
         <v>171</v>
       </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
       <c r="H29" t="s">
         <v>346</v>
       </c>
       <c r="I29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2473,7 +2473,7 @@
         <v>348</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2496,7 +2496,7 @@
         <v>349</v>
       </c>
       <c r="I32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2519,7 +2519,7 @@
         <v>350</v>
       </c>
       <c r="I33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2547,10 +2547,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -2565,7 +2565,7 @@
         <v>352</v>
       </c>
       <c r="I35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2588,7 +2588,7 @@
         <v>353</v>
       </c>
       <c r="I36" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2611,7 +2611,7 @@
         <v>354</v>
       </c>
       <c r="I37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2634,15 +2634,15 @@
         <v>355</v>
       </c>
       <c r="I38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2657,15 +2657,15 @@
         <v>356</v>
       </c>
       <c r="I39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -2726,15 +2726,15 @@
         <v>359</v>
       </c>
       <c r="I42" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2749,7 +2749,7 @@
         <v>360</v>
       </c>
       <c r="I43" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2772,7 +2772,7 @@
         <v>361</v>
       </c>
       <c r="I44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2795,15 +2795,15 @@
         <v>362</v>
       </c>
       <c r="I45" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2841,7 +2841,7 @@
         <v>364</v>
       </c>
       <c r="I47" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2864,15 +2864,15 @@
         <v>365</v>
       </c>
       <c r="I48" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -2887,7 +2887,7 @@
         <v>366</v>
       </c>
       <c r="I49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2910,7 +2910,7 @@
         <v>367</v>
       </c>
       <c r="I50" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2938,10 +2938,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -2956,15 +2956,15 @@
         <v>369</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -3002,7 +3002,7 @@
         <v>371</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3044,6 +3044,9 @@
       <c r="G56" t="s">
         <v>233</v>
       </c>
+      <c r="H56" t="s">
+        <v>373</v>
+      </c>
       <c r="I56" t="s">
         <v>461</v>
       </c>
@@ -3064,19 +3067,16 @@
       <c r="G57" t="s">
         <v>234</v>
       </c>
-      <c r="H57" t="s">
-        <v>373</v>
-      </c>
       <c r="I57" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -3160,15 +3160,15 @@
         <v>377</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -3183,15 +3183,15 @@
         <v>378</v>
       </c>
       <c r="I62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -3206,7 +3206,7 @@
         <v>379</v>
       </c>
       <c r="I63" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3257,10 +3257,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
@@ -3275,15 +3275,15 @@
         <v>382</v>
       </c>
       <c r="I66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
@@ -3298,15 +3298,15 @@
         <v>383</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -3317,16 +3317,19 @@
       <c r="G68" t="s">
         <v>245</v>
       </c>
+      <c r="H68" t="s">
+        <v>384</v>
+      </c>
       <c r="I68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
@@ -3338,18 +3341,18 @@
         <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I69" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
@@ -3360,9 +3363,6 @@
       <c r="G70" t="s">
         <v>247</v>
       </c>
-      <c r="H70" t="s">
-        <v>385</v>
-      </c>
       <c r="I70" t="s">
         <v>461</v>
       </c>
@@ -3397,8 +3397,8 @@
       <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" t="s">
-        <v>156</v>
+      <c r="C72" t="s">
+        <v>85</v>
       </c>
       <c r="F72" t="s">
         <v>175</v>
@@ -3409,16 +3409,19 @@
       <c r="H72" t="s">
         <v>387</v>
       </c>
+      <c r="I72" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
         <v>175</v>
@@ -3430,18 +3433,18 @@
         <v>388</v>
       </c>
       <c r="I73" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
         <v>175</v>
@@ -3453,7 +3456,7 @@
         <v>389</v>
       </c>
       <c r="I74" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3464,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
         <v>175</v>
@@ -3476,18 +3479,18 @@
         <v>390</v>
       </c>
       <c r="I75" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
         <v>175</v>
@@ -3499,7 +3502,7 @@
         <v>391</v>
       </c>
       <c r="I76" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3510,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
         <v>175</v>
@@ -3533,7 +3536,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
         <v>175</v>
@@ -3545,18 +3548,18 @@
         <v>393</v>
       </c>
       <c r="I78" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F79" t="s">
         <v>175</v>
@@ -3568,18 +3571,18 @@
         <v>394</v>
       </c>
       <c r="I79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
         <v>175</v>
@@ -3601,8 +3604,8 @@
       <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="C81" t="s">
-        <v>93</v>
+      <c r="D81" t="s">
+        <v>156</v>
       </c>
       <c r="F81" t="s">
         <v>175</v>
@@ -3611,18 +3614,15 @@
         <v>258</v>
       </c>
       <c r="H81" t="s">
-        <v>396</v>
-      </c>
-      <c r="I81" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>94</v>
@@ -3634,18 +3634,18 @@
         <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>95</v>
@@ -3657,18 +3657,18 @@
         <v>260</v>
       </c>
       <c r="H83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I83" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>96</v>
@@ -3680,7 +3680,7 @@
         <v>261</v>
       </c>
       <c r="H84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I84" t="s">
         <v>464</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>97</v>
@@ -3703,18 +3703,18 @@
         <v>262</v>
       </c>
       <c r="H85" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I85" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>98</v>
@@ -3726,10 +3726,10 @@
         <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="I86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3752,15 +3752,15 @@
         <v>401</v>
       </c>
       <c r="I87" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>100</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>101</v>
@@ -3798,7 +3798,7 @@
         <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3811,6 +3811,9 @@
       <c r="C90" t="s">
         <v>102</v>
       </c>
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
       <c r="F90" t="s">
         <v>176</v>
       </c>
@@ -3826,17 +3829,14 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
       </c>
-      <c r="D91" t="s">
-        <v>157</v>
-      </c>
       <c r="F91" t="s">
         <v>176</v>
       </c>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
@@ -3870,7 +3870,7 @@
         <v>406</v>
       </c>
       <c r="I92" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3893,7 +3893,7 @@
         <v>407</v>
       </c>
       <c r="I93" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3916,15 +3916,15 @@
         <v>408</v>
       </c>
       <c r="I94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>107</v>
@@ -3939,15 +3939,15 @@
         <v>409</v>
       </c>
       <c r="I95" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
@@ -3962,15 +3962,15 @@
         <v>410</v>
       </c>
       <c r="I96" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>109</v>
@@ -3985,15 +3985,15 @@
         <v>411</v>
       </c>
       <c r="I97" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
@@ -4008,15 +4008,15 @@
         <v>412</v>
       </c>
       <c r="I98" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
@@ -4054,15 +4054,15 @@
         <v>414</v>
       </c>
       <c r="I100" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
@@ -4077,7 +4077,7 @@
         <v>415</v>
       </c>
       <c r="I101" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4105,10 +4105,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>115</v>
@@ -4123,7 +4123,7 @@
         <v>417</v>
       </c>
       <c r="I103" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4169,7 +4169,7 @@
         <v>419</v>
       </c>
       <c r="I105" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4192,15 +4192,15 @@
         <v>420</v>
       </c>
       <c r="I106" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
         <v>119</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
         <v>120</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
         <v>121</v>
@@ -4261,7 +4261,7 @@
         <v>423</v>
       </c>
       <c r="I109" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4289,13 +4289,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
       </c>
       <c r="F111" t="s">
         <v>177</v>
@@ -4306,19 +4306,16 @@
       <c r="H111" t="s">
         <v>425</v>
       </c>
-      <c r="I111" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F112" t="s">
         <v>177</v>
@@ -4330,18 +4327,18 @@
         <v>426</v>
       </c>
       <c r="I112" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" t="s">
         <v>177</v>
@@ -4353,18 +4350,18 @@
         <v>427</v>
       </c>
       <c r="I113" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" t="s">
         <v>177</v>
@@ -4386,8 +4383,8 @@
       <c r="B115" t="s">
         <v>14</v>
       </c>
-      <c r="D115" t="s">
-        <v>158</v>
+      <c r="C115" t="s">
+        <v>126</v>
       </c>
       <c r="F115" t="s">
         <v>177</v>
@@ -4398,6 +4395,9 @@
       <c r="H115" t="s">
         <v>429</v>
       </c>
+      <c r="I115" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -4442,7 +4442,7 @@
         <v>431</v>
       </c>
       <c r="I117" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4465,7 +4465,7 @@
         <v>432</v>
       </c>
       <c r="I118" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4484,8 +4484,11 @@
       <c r="G119" t="s">
         <v>296</v>
       </c>
+      <c r="H119" t="s">
+        <v>433</v>
+      </c>
       <c r="I119" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4505,10 +4508,10 @@
         <v>297</v>
       </c>
       <c r="H120" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I120" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4528,7 +4531,7 @@
         <v>298</v>
       </c>
       <c r="H121" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I121" t="s">
         <v>464</v>
@@ -4541,8 +4544,8 @@
       <c r="B122" t="s">
         <v>14</v>
       </c>
-      <c r="C122" t="s">
-        <v>133</v>
+      <c r="D122" t="s">
+        <v>159</v>
       </c>
       <c r="F122" t="s">
         <v>178</v>
@@ -4551,10 +4554,7 @@
         <v>299</v>
       </c>
       <c r="H122" t="s">
-        <v>435</v>
-      </c>
-      <c r="I122" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4565,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F123" t="s">
         <v>178</v>
@@ -4574,10 +4574,10 @@
         <v>300</v>
       </c>
       <c r="H123" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I123" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4588,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F124" t="s">
         <v>178</v>
@@ -4597,10 +4597,10 @@
         <v>301</v>
       </c>
       <c r="H124" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I124" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4611,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F125" t="s">
         <v>178</v>
@@ -4620,10 +4620,10 @@
         <v>302</v>
       </c>
       <c r="H125" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I125" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4634,7 +4634,7 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F126" t="s">
         <v>178</v>
@@ -4643,7 +4643,7 @@
         <v>303</v>
       </c>
       <c r="H126" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I126" t="s">
         <v>464</v>
@@ -4657,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F127" t="s">
         <v>178</v>
@@ -4666,10 +4666,10 @@
         <v>304</v>
       </c>
       <c r="H127" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I127" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4679,8 +4679,8 @@
       <c r="B128" t="s">
         <v>14</v>
       </c>
-      <c r="D128" t="s">
-        <v>159</v>
+      <c r="C128" t="s">
+        <v>138</v>
       </c>
       <c r="F128" t="s">
         <v>178</v>
@@ -4688,8 +4688,8 @@
       <c r="G128" t="s">
         <v>305</v>
       </c>
-      <c r="H128" t="s">
-        <v>441</v>
+      <c r="I128" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4712,7 +4712,7 @@
         <v>442</v>
       </c>
       <c r="I129" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4735,7 +4735,7 @@
         <v>443</v>
       </c>
       <c r="I130" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4781,7 +4781,7 @@
         <v>445</v>
       </c>
       <c r="I132" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4804,15 +4804,15 @@
         <v>446</v>
       </c>
       <c r="I133" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
         <v>144</v>
@@ -4824,7 +4824,7 @@
         <v>311</v>
       </c>
       <c r="H134" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="I134" t="s">
         <v>461</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>145</v>
@@ -4847,10 +4847,10 @@
         <v>312</v>
       </c>
       <c r="H135" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I135" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4870,7 +4870,7 @@
         <v>313</v>
       </c>
       <c r="H136" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I136" t="s">
         <v>461</v>
@@ -4896,15 +4896,15 @@
         <v>449</v>
       </c>
       <c r="I137" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>148</v>
@@ -4919,15 +4919,15 @@
         <v>450</v>
       </c>
       <c r="I138" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
@@ -4965,7 +4965,7 @@
         <v>452</v>
       </c>
       <c r="I140" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4998,14 +4998,14 @@
       <c r="B142" t="s">
         <v>14</v>
       </c>
-      <c r="C142" t="s">
-        <v>152</v>
+      <c r="D142" t="s">
+        <v>160</v>
       </c>
       <c r="G142" t="s">
         <v>319</v>
       </c>
-      <c r="I142" t="s">
-        <v>461</v>
+      <c r="H142" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5015,17 +5015,14 @@
       <c r="B143" t="s">
         <v>14</v>
       </c>
-      <c r="C143" t="s">
-        <v>153</v>
+      <c r="D143" t="s">
+        <v>161</v>
       </c>
       <c r="G143" t="s">
         <v>320</v>
       </c>
       <c r="H143" t="s">
-        <v>454</v>
-      </c>
-      <c r="I143" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5036,16 +5033,16 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G144" t="s">
         <v>321</v>
       </c>
       <c r="H144" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5053,47 +5050,50 @@
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G145" t="s">
         <v>322</v>
       </c>
       <c r="H145" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
-      <c r="D146" t="s">
-        <v>162</v>
+      <c r="C146" t="s">
+        <v>152</v>
       </c>
       <c r="G146" t="s">
         <v>323</v>
       </c>
-      <c r="H146" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
       </c>
-      <c r="D147" t="s">
-        <v>163</v>
+      <c r="C147" t="s">
+        <v>153</v>
       </c>
       <c r="G147" t="s">
         <v>324</v>
       </c>
       <c r="H147" t="s">
         <v>458</v>
+      </c>
+      <c r="I147" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage2/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="484">
   <si>
     <t>statut</t>
   </si>
@@ -55,36 +55,36 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT00134212</t>
   </si>
   <si>
     <t>NCT00151606</t>
   </si>
   <si>
-    <t>NCT00134212</t>
-  </si>
-  <si>
     <t>NCT00151593</t>
   </si>
   <si>
     <t>NCT00219856</t>
   </si>
   <si>
+    <t>NCT00151580</t>
+  </si>
+  <si>
     <t>NCT00138684</t>
   </si>
   <si>
-    <t>NCT00151580</t>
-  </si>
-  <si>
     <t>NCT00151567</t>
   </si>
   <si>
@@ -94,270 +94,270 @@
     <t>NCT00305916</t>
   </si>
   <si>
+    <t>NCT01282567</t>
+  </si>
+  <si>
     <t>NCT00598026</t>
   </si>
   <si>
-    <t>NCT01282567</t>
-  </si>
-  <si>
     <t>NCT01437917</t>
   </si>
   <si>
     <t>NCT01435668</t>
   </si>
   <si>
+    <t>NCT00401336</t>
+  </si>
+  <si>
+    <t>NCT01883024</t>
+  </si>
+  <si>
     <t>NCT01282554</t>
   </si>
   <si>
-    <t>NCT00401336</t>
-  </si>
-  <si>
     <t>NCT01780883</t>
   </si>
   <si>
-    <t>NCT01883024</t>
+    <t>NCT02304874</t>
+  </si>
+  <si>
+    <t>NCT01543113</t>
+  </si>
+  <si>
+    <t>NCT01257139</t>
+  </si>
+  <si>
+    <t>NCT01543100</t>
   </si>
   <si>
     <t>NCT02061488</t>
   </si>
   <si>
-    <t>NCT01543113</t>
-  </si>
-  <si>
-    <t>NCT01543100</t>
-  </si>
-  <si>
-    <t>NCT01257139</t>
-  </si>
-  <si>
-    <t>NCT02304874</t>
+    <t>NCT01576315</t>
+  </si>
+  <si>
+    <t>NCT02096367</t>
+  </si>
+  <si>
+    <t>NCT02060578</t>
+  </si>
+  <si>
+    <t>NCT02305771</t>
+  </si>
+  <si>
+    <t>NCT02882399</t>
+  </si>
+  <si>
+    <t>NCT02149862</t>
   </si>
   <si>
     <t>NCT02067455</t>
   </si>
   <si>
+    <t>NCT01673230</t>
+  </si>
+  <si>
+    <t>NCT01039090</t>
+  </si>
+  <si>
+    <t>NCT01045525</t>
+  </si>
+  <si>
     <t>NCT01572818</t>
   </si>
   <si>
-    <t>NCT02882399</t>
-  </si>
-  <si>
-    <t>NCT01576315</t>
-  </si>
-  <si>
-    <t>NCT01039090</t>
-  </si>
-  <si>
-    <t>NCT02305771</t>
-  </si>
-  <si>
-    <t>NCT02060578</t>
-  </si>
-  <si>
-    <t>NCT01673230</t>
-  </si>
-  <si>
-    <t>NCT01045525</t>
-  </si>
-  <si>
-    <t>NCT02149862</t>
-  </si>
-  <si>
-    <t>NCT02096367</t>
-  </si>
-  <si>
     <t>NCT03274843</t>
   </si>
   <si>
+    <t>NCT01738516</t>
+  </si>
+  <si>
+    <t>NCT01743703</t>
+  </si>
+  <si>
+    <t>NCT02018484</t>
+  </si>
+  <si>
+    <t>NCT02357407</t>
+  </si>
+  <si>
+    <t>NCT00925691</t>
+  </si>
+  <si>
+    <t>NCT02350556</t>
+  </si>
+  <si>
+    <t>NCT02112331</t>
+  </si>
+  <si>
     <t>NCT02140918</t>
   </si>
   <si>
-    <t>NCT02350556</t>
-  </si>
-  <si>
-    <t>NCT01743703</t>
-  </si>
-  <si>
-    <t>NCT02018484</t>
-  </si>
-  <si>
-    <t>NCT00925691</t>
-  </si>
-  <si>
-    <t>NCT02112331</t>
-  </si>
-  <si>
-    <t>NCT01738516</t>
-  </si>
-  <si>
-    <t>NCT02357407</t>
+    <t>NCT01677078</t>
+  </si>
+  <si>
+    <t>NCT02492529</t>
+  </si>
+  <si>
+    <t>NCT00287105</t>
+  </si>
+  <si>
+    <t>NCT02131909</t>
   </si>
   <si>
     <t>NCT01789008</t>
   </si>
   <si>
+    <t>NCT02662322</t>
+  </si>
+  <si>
+    <t>NCT03651960</t>
+  </si>
+  <si>
     <t>NCT02099214</t>
   </si>
   <si>
     <t>NCT02125110</t>
   </si>
   <si>
-    <t>NCT02492529</t>
-  </si>
-  <si>
-    <t>NCT00287105</t>
-  </si>
-  <si>
-    <t>NCT01677078</t>
-  </si>
-  <si>
-    <t>NCT02662322</t>
-  </si>
-  <si>
-    <t>NCT03651960</t>
-  </si>
-  <si>
-    <t>NCT02131909</t>
-  </si>
-  <si>
     <t>NCT01569724</t>
   </si>
   <si>
+    <t>NCT02528032</t>
+  </si>
+  <si>
+    <t>NCT02753387</t>
+  </si>
+  <si>
+    <t>NCT02857205</t>
+  </si>
+  <si>
+    <t>NCT02990195</t>
+  </si>
+  <si>
+    <t>NCT02041169</t>
+  </si>
+  <si>
+    <t>NCT01388387</t>
+  </si>
+  <si>
+    <t>NCT01949467</t>
+  </si>
+  <si>
+    <t>NCT02398474</t>
+  </si>
+  <si>
+    <t>NCT03174327</t>
+  </si>
+  <si>
     <t>NCT03484052</t>
   </si>
   <si>
-    <t>NCT01949467</t>
-  </si>
-  <si>
-    <t>NCT02753387</t>
-  </si>
-  <si>
-    <t>NCT02857205</t>
-  </si>
-  <si>
-    <t>NCT02528032</t>
-  </si>
-  <si>
-    <t>NCT02990195</t>
-  </si>
-  <si>
-    <t>NCT02398474</t>
+    <t>NCT02594956</t>
+  </si>
+  <si>
+    <t>NCT01282593</t>
+  </si>
+  <si>
+    <t>NCT02465970</t>
+  </si>
+  <si>
+    <t>NCT01973478</t>
   </si>
   <si>
     <t>NCT01148069</t>
   </si>
   <si>
-    <t>NCT02041169</t>
-  </si>
-  <si>
-    <t>NCT02465970</t>
-  </si>
-  <si>
-    <t>NCT01973478</t>
-  </si>
-  <si>
-    <t>NCT03174327</t>
-  </si>
-  <si>
-    <t>NCT01282593</t>
-  </si>
-  <si>
-    <t>NCT02594956</t>
-  </si>
-  <si>
-    <t>NCT01388387</t>
+    <t>NCT02884440</t>
+  </si>
+  <si>
+    <t>NCT03076489</t>
+  </si>
+  <si>
+    <t>NCT03828968</t>
+  </si>
+  <si>
+    <t>NCT02400047</t>
+  </si>
+  <si>
+    <t>NCT04079244</t>
+  </si>
+  <si>
+    <t>NCT03046199</t>
+  </si>
+  <si>
+    <t>NCT01677091</t>
+  </si>
+  <si>
+    <t>NCT02361450</t>
+  </si>
+  <si>
+    <t>NCT03279913</t>
+  </si>
+  <si>
+    <t>NCT03818750</t>
+  </si>
+  <si>
+    <t>NCT03673189</t>
+  </si>
+  <si>
+    <t>NCT03638921</t>
+  </si>
+  <si>
+    <t>NCT02966847</t>
+  </si>
+  <si>
+    <t>NCT03376074</t>
+  </si>
+  <si>
+    <t>NCT01810965</t>
   </si>
   <si>
     <t>NCT03267927</t>
   </si>
   <si>
-    <t>NCT03818750</t>
-  </si>
-  <si>
-    <t>NCT04079244</t>
-  </si>
-  <si>
-    <t>NCT03046199</t>
-  </si>
-  <si>
-    <t>NCT03638921</t>
-  </si>
-  <si>
-    <t>NCT03076489</t>
-  </si>
-  <si>
-    <t>NCT03673189</t>
-  </si>
-  <si>
-    <t>NCT03828968</t>
-  </si>
-  <si>
-    <t>NCT02884440</t>
-  </si>
-  <si>
-    <t>NCT02966847</t>
-  </si>
-  <si>
-    <t>NCT01677091</t>
-  </si>
-  <si>
-    <t>NCT02361450</t>
-  </si>
-  <si>
-    <t>NCT03279913</t>
-  </si>
-  <si>
-    <t>NCT02400047</t>
-  </si>
-  <si>
-    <t>NCT01810965</t>
-  </si>
-  <si>
-    <t>NCT03376074</t>
+    <t>NCT03110094</t>
+  </si>
+  <si>
+    <t>NCT04455308</t>
+  </si>
+  <si>
+    <t>NCT02470247</t>
+  </si>
+  <si>
+    <t>NCT02802397</t>
+  </si>
+  <si>
+    <t>NCT02650609</t>
+  </si>
+  <si>
+    <t>NCT02212483</t>
+  </si>
+  <si>
+    <t>NCT02937285</t>
+  </si>
+  <si>
+    <t>NCT02822144</t>
   </si>
   <si>
     <t>NCT01613638</t>
   </si>
   <si>
-    <t>NCT02470247</t>
-  </si>
-  <si>
-    <t>NCT02650609</t>
+    <t>NCT04416308</t>
+  </si>
+  <si>
+    <t>NCT03942432</t>
+  </si>
+  <si>
+    <t>NCT02864017</t>
+  </si>
+  <si>
+    <t>NCT03200457</t>
   </si>
   <si>
     <t>NCT02599493</t>
   </si>
   <si>
-    <t>NCT04416308</t>
-  </si>
-  <si>
-    <t>NCT02937285</t>
-  </si>
-  <si>
-    <t>NCT02822144</t>
-  </si>
-  <si>
-    <t>NCT03942432</t>
-  </si>
-  <si>
-    <t>NCT03200457</t>
-  </si>
-  <si>
-    <t>NCT02864017</t>
-  </si>
-  <si>
-    <t>NCT04455308</t>
-  </si>
-  <si>
-    <t>NCT03110094</t>
-  </si>
-  <si>
-    <t>NCT02802397</t>
-  </si>
-  <si>
-    <t>NCT02212483</t>
-  </si>
-  <si>
     <t>NCT02900339</t>
   </si>
   <si>
@@ -370,144 +370,168 @@
     <t>NCT03372174</t>
   </si>
   <si>
+    <t>NCT03140644</t>
+  </si>
+  <si>
+    <t>NCT03396770</t>
+  </si>
+  <si>
     <t>NCT04771091</t>
   </si>
   <si>
+    <t>NCT04235972</t>
+  </si>
+  <si>
+    <t>NCT04473742</t>
+  </si>
+  <si>
+    <t>NCT03454711</t>
+  </si>
+  <si>
     <t>NCT04373200</t>
   </si>
   <si>
-    <t>NCT03140644</t>
+    <t>NCT04742465</t>
   </si>
   <si>
     <t>NCT03030170</t>
   </si>
   <si>
-    <t>NCT03454711</t>
-  </si>
-  <si>
-    <t>NCT03396770</t>
-  </si>
-  <si>
-    <t>NCT04235972</t>
-  </si>
-  <si>
-    <t>NCT04742465</t>
-  </si>
-  <si>
-    <t>NCT04473742</t>
+    <t>NCT03481686</t>
   </si>
   <si>
     <t>NCT04211220</t>
   </si>
   <si>
+    <t>NCT03795103</t>
+  </si>
+  <si>
+    <t>NCT03351361</t>
+  </si>
+  <si>
+    <t>NCT04129333</t>
+  </si>
+  <si>
+    <t>NCT03805997</t>
+  </si>
+  <si>
     <t>NCT05234216</t>
   </si>
   <si>
+    <t>NCT04001556</t>
+  </si>
+  <si>
+    <t>NCT03570385</t>
+  </si>
+  <si>
     <t>NCT04539899</t>
   </si>
   <si>
+    <t>NCT03291977</t>
+  </si>
+  <si>
     <t>NCT03693872</t>
   </si>
   <si>
-    <t>NCT03805997</t>
-  </si>
-  <si>
-    <t>NCT03570385</t>
-  </si>
-  <si>
-    <t>NCT03351361</t>
-  </si>
-  <si>
-    <t>NCT04129333</t>
-  </si>
-  <si>
-    <t>NCT03481686</t>
-  </si>
-  <si>
-    <t>NCT03795103</t>
-  </si>
-  <si>
-    <t>NCT03291977</t>
-  </si>
-  <si>
     <t>NCT04624347</t>
   </si>
   <si>
-    <t>NCT04001556</t>
+    <t>NCT04697407</t>
+  </si>
+  <si>
+    <t>NCT02537509</t>
+  </si>
+  <si>
+    <t>NCT03436823</t>
+  </si>
+  <si>
+    <t>NCT03807167</t>
+  </si>
+  <si>
+    <t>NCT04130711</t>
+  </si>
+  <si>
+    <t>NCT05255952</t>
+  </si>
+  <si>
+    <t>NCT04466800</t>
+  </si>
+  <si>
+    <t>NCT04489134</t>
   </si>
   <si>
     <t>NCT03744351</t>
   </si>
   <si>
-    <t>NCT03807167</t>
-  </si>
-  <si>
-    <t>NCT04466800</t>
-  </si>
-  <si>
-    <t>NCT05255952</t>
-  </si>
-  <si>
     <t>NCT04872023</t>
   </si>
   <si>
     <t>NCT04562207</t>
   </si>
   <si>
-    <t>NCT03436823</t>
-  </si>
-  <si>
-    <t>NCT04489134</t>
-  </si>
-  <si>
-    <t>NCT02537509</t>
-  </si>
-  <si>
-    <t>NCT04130711</t>
-  </si>
-  <si>
-    <t>NCT04697407</t>
-  </si>
-  <si>
     <t>NCT04646811</t>
   </si>
   <si>
+    <t>NCT01976182</t>
+  </si>
+  <si>
+    <t>NCT02883504</t>
+  </si>
+  <si>
     <t>NCT01296724</t>
   </si>
   <si>
-    <t>NCT02883504</t>
-  </si>
-  <si>
     <t>2008-008372-13</t>
   </si>
   <si>
     <t>2008-006045-10</t>
   </si>
   <si>
+    <t>2014-005026-35</t>
+  </si>
+  <si>
     <t>2016-001413-24</t>
   </si>
   <si>
+    <t>2018-001652-35</t>
+  </si>
+  <si>
     <t>2015-000927-96</t>
   </si>
   <si>
+    <t>2004-001601-10</t>
+  </si>
+  <si>
+    <t>2016-000795-25</t>
+  </si>
+  <si>
+    <t>2015-001519-11</t>
+  </si>
+  <si>
     <t>2017-002842-60</t>
   </si>
   <si>
     <t>2021-000987-31</t>
   </si>
   <si>
+    <t>2016-002454-20</t>
+  </si>
+  <si>
+    <t>2015-000881-73</t>
+  </si>
+  <si>
+    <t>2020-001856-16</t>
+  </si>
+  <si>
     <t>2006-006353-27</t>
   </si>
   <si>
+    <t>2020-001655-41</t>
+  </si>
+  <si>
     <t>2021-000826-89</t>
   </si>
   <si>
-    <t>2020-001655-41</t>
-  </si>
-  <si>
-    <t>2015-000881-73</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -559,24 +583,27 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
+  </si>
+  <si>
     <t>Evaluation of Two Protocols to Prevent the Acquisition of Methicillin-Resistant Staphylococcus Aureus in Intensive Care Units.</t>
   </si>
   <si>
-    <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
-  </si>
-  <si>
     <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
   </si>
   <si>
     <t>Prospective, Randomized, Simple Blind Study Comparing the Effects of an Anaesthesia With Propofol to an Anaesthesia With Desflurane on Oxydative Stress and Liver Function Recovery After Hepatectomy</t>
   </si>
   <si>
+    <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
+  </si>
+  <si>
     <t>Cytochrome P450 2E1 and Iron Overload</t>
   </si>
   <si>
-    <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
-  </si>
-  <si>
     <t>Interest of a Treatment With the alpha1-blocker Tamsulosin in the Elimination of Pelvis Ureteral Stones</t>
   </si>
   <si>
@@ -586,31 +613,40 @@
     <t>Accuracy of Multislice Spiral Computed Tomography in Diagnosis of Coronary Artery Disease Associated to Idiopathic Cardiomyopathy in Sinus Rhythm ("MSCT-IC Study").</t>
   </si>
   <si>
+    <t>Preliminary Study for the Artificial Pancreas Project : Determination of a Tuning Strategy of Metabolic Profiles</t>
+  </si>
+  <si>
     <t>Evaluation of the " Tele-follow-up " for the Follow-up of Implantable Defibrillators</t>
   </si>
   <si>
-    <t>Preliminary Study for the Artificial Pancreas Project : Determination of a Tuning Strategy of Metabolic Profiles</t>
-  </si>
-  <si>
     <t>NOMAC : New Tools for Managing the Fate of Cereal Nutrients in the Gut : Effects of Amylose Content on Glycemic Index.</t>
   </si>
   <si>
     <t>Impact Evaluation at 3 Months Follow-up of a Brief Motivational Intervention in Reducing Alcohol Consumption Versus Simple Written Advice Only Among Adolescents Aged 16-24 in Pontchaillou Hospital Emergency Department in Rennes, France</t>
   </si>
   <si>
+    <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
+  </si>
+  <si>
+    <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
+  </si>
+  <si>
+    <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
+  </si>
+  <si>
     <t>Evaluation of Electrostimulation Program During Dialysis Sessions in Chronic Renal Failure Patients</t>
   </si>
   <si>
-    <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
-  </si>
-  <si>
-    <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
-  </si>
-  <si>
     <t>Melatonin Dose-effect Relation in Childhood Autism</t>
   </si>
   <si>
-    <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
+    <t>Evaluation of Body Iron Stores in Overweight Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
+  </si>
+  <si>
+    <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
   </si>
   <si>
     <t>Prospective, Monocentric, Crossover Randomized Trial, to Assess a New Closed-loop Algorithm in Type 1 Diabetes (Saddle Point Model Predictive Control : SP-MPC)</t>
@@ -619,241 +655,232 @@
     <t>Effet de la stimulation dopaminergique continue par pompe à apomorphine sur les fluctuations cognitives et psychiques des patients parkinsoniens: étude clinique et métabolique cérébrale par TEP au 18FDG</t>
   </si>
   <si>
-    <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
-  </si>
-  <si>
-    <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
-  </si>
-  <si>
-    <t>Evaluation of Body Iron Stores in Overweight Healthy Volunteers</t>
+    <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
+  </si>
+  <si>
+    <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
+  </si>
+  <si>
+    <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
+  </si>
+  <si>
+    <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
+  </si>
+  <si>
+    <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
   </si>
   <si>
     <t>This is a Non-randomized, Single-center, Prospective Investigation on Exercise Capacities of Left Ventricular Assist Devices Recipients</t>
   </si>
   <si>
+    <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
+  </si>
+  <si>
+    <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
+  </si>
+  <si>
     <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
   </si>
   <si>
-    <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
-  </si>
-  <si>
-    <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
-  </si>
-  <si>
-    <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
-  </si>
-  <si>
-    <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
-  </si>
-  <si>
-    <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
-  </si>
-  <si>
-    <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
-  </si>
-  <si>
-    <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
-  </si>
-  <si>
     <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
   </si>
   <si>
+    <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
+  </si>
+  <si>
+    <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
+  </si>
+  <si>
+    <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
+  </si>
+  <si>
+    <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
+  </si>
+  <si>
+    <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
+  </si>
+  <si>
+    <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
+  </si>
+  <si>
+    <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
+  </si>
+  <si>
     <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
-  </si>
-  <si>
-    <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
-  </si>
-  <si>
-    <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
-  </si>
-  <si>
-    <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
-  </si>
-  <si>
-    <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
-  </si>
-  <si>
-    <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
-  </si>
-  <si>
-    <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
+    <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
+  </si>
+  <si>
+    <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
+  </si>
+  <si>
+    <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
   </si>
   <si>
     <t>Interest of Transient Elastography in the Determination of Advanced Fibrosis in Alcoholic Liver Didease in Alcoholic Patients in Weaning.</t>
   </si>
   <si>
+    <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
+  </si>
+  <si>
+    <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
+  </si>
+  <si>
     <t>Estimation of Myocardial Iron Overload by 3 Tesla MRI and Cardiac Functional Consequences in Patients With HFE Hereditary Haemochromatosis. Pilot Study</t>
   </si>
   <si>
     <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
   </si>
   <si>
-    <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
-  </si>
-  <si>
-    <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
-  </si>
-  <si>
-    <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
-  </si>
-  <si>
-    <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
-  </si>
-  <si>
-    <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
-  </si>
-  <si>
-    <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
-  </si>
-  <si>
     <t>Estimation of Carbohydrate Metabolism Disorder Frequency in Hypertriglyceridemia Induced by Bexarotene Treatment of Cutaneous T Cell Lymphoma - Pilote Study</t>
   </si>
   <si>
+    <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
+  </si>
+  <si>
+    <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
+  </si>
+  <si>
+    <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
+  </si>
+  <si>
+    <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
+  </si>
+  <si>
+    <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
+  </si>
+  <si>
+    <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
+  </si>
+  <si>
+    <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
+  </si>
+  <si>
+    <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
+  </si>
+  <si>
+    <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
+  </si>
+  <si>
     <t>Place of Jugular Ultrasound in the Evaluation of the Volemia by a Clinician Doctor in Routine Care (JUVIA)</t>
   </si>
   <si>
-    <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
-  </si>
-  <si>
-    <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
-  </si>
-  <si>
-    <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
-  </si>
-  <si>
-    <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
-  </si>
-  <si>
-    <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
-  </si>
-  <si>
-    <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
+    <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
+  </si>
+  <si>
+    <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
+  </si>
+  <si>
+    <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
+  </si>
+  <si>
+    <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
   </si>
   <si>
     <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
   </si>
   <si>
-    <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
-  </si>
-  <si>
-    <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
-  </si>
-  <si>
-    <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
-  </si>
-  <si>
-    <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
-  </si>
-  <si>
-    <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
-  </si>
-  <si>
-    <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
-  </si>
-  <si>
-    <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
-  </si>
-  <si>
-    <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
+    <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
+  </si>
+  <si>
+    <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
+  </si>
+  <si>
+    <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
+  </si>
+  <si>
+    <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
+  </si>
+  <si>
+    <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
+  </si>
+  <si>
+    <t>Detection of COPD in Primary Care</t>
+  </si>
+  <si>
+    <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
   </si>
   <si>
     <t>Impact of Marketing of Alcohol Products on Young People</t>
-  </si>
-  <si>
-    <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
-  </si>
-  <si>
-    <t>Detection of COPD in Primary Care</t>
-  </si>
-  <si>
-    <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
-  </si>
-  <si>
-    <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
-  </si>
-  <si>
-    <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
-  </si>
-  <si>
-    <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
-  </si>
-  <si>
-    <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
   </si>
   <si>
     <t>Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure. 
  Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure.</t>
   </si>
   <si>
-    <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
-  </si>
-  <si>
-    <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
-  </si>
-  <si>
-    <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
+    <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
+  </si>
+  <si>
+    <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
+  </si>
+  <si>
+    <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
+  </si>
+  <si>
+    <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
   </si>
   <si>
     <t>Impact of Bloodletting on Iron Metabolism in Type 1 Hemochromatosis: Pathophysiological and Clinical Implications. Pilot Study.</t>
   </si>
   <si>
-    <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
+    <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
+  </si>
+  <si>
+    <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
+  </si>
+  <si>
+    <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
+  </si>
+  <si>
+    <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
+  </si>
+  <si>
+    <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
+  </si>
+  <si>
+    <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
+  </si>
+  <si>
+    <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
+  </si>
+  <si>
+    <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
   </si>
   <si>
     <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
   </si>
   <si>
-    <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
-  </si>
-  <si>
-    <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
+    <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
+  </si>
+  <si>
+    <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
+  </si>
+  <si>
+    <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
+  </si>
+  <si>
+    <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
   </si>
   <si>
     <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
   </si>
   <si>
-    <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
-  </si>
-  <si>
-    <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
-  </si>
-  <si>
-    <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
-  </si>
-  <si>
-    <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
-  </si>
-  <si>
-    <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
-  </si>
-  <si>
-    <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
-  </si>
-  <si>
-    <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
-  </si>
-  <si>
-    <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
-  </si>
-  <si>
-    <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
-  </si>
-  <si>
     <t>MRI Sequences Optimization in Healthy Subjects</t>
   </si>
   <si>
@@ -866,53 +893,44 @@
     <t>Beneficial Effects on Maintaining Mechanical Ventilation During Cardiopulmonary Bypass for Cardiac Surgery on Postoperative Infections</t>
   </si>
   <si>
+    <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
+  </si>
+  <si>
+    <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
+  </si>
+  <si>
     <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
   </si>
   <si>
-    <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
-  </si>
-  <si>
-    <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
-  </si>
-  <si>
-    <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
-  </si>
-  <si>
-    <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
+    <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
+  </si>
+  <si>
+    <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
   </si>
   <si>
     <t>Randomised phase III study testing nivolumab and ipilimumab versus a_x000D_ carboplatin based doublet in first line treatment of PS 2 or elderly (more_x000D_ than 70 years old) patients with advanced non-small cell lung cancer 
  Etude randomisée de phase III testant l'association nivolumab et_x000D_ ipilimumab versus un doublet à base de carboplatine dans le traitement de première ligne du CBNPC chez des patients PS 2 ou de plus de 70 ans</t>
   </si>
   <si>
-    <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
+    <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
+  </si>
+  <si>
+    <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
   </si>
   <si>
     <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
   </si>
   <si>
-    <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
+    <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
+  </si>
+  <si>
+    <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
   </si>
   <si>
     <t>Clinical Evaluation of Insulin Real-Time Advisor (IRTA©): a Decision Support Software for Insulin Therapy Combined With Freestyle Libre®, a Continuous Glucose Monitoring System: Glycemic Impact and Satisfaction in Type 1 Diabetic Patients</t>
   </si>
   <si>
-    <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Influence of the Virtual Reality Helmet on Pain During IUD Insertion : REAVIST</t>
-  </si>
-  <si>
-    <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
-  </si>
-  <si>
-    <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
-  </si>
-  <si>
-    <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
+    <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Immunomonitoring and multiple myeloma: impact of lenalidomide on immune checkpoint expression 
@@ -925,78 +943,98 @@
     <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
   </si>
   <si>
-    <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
-  </si>
-  <si>
-    <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
+    <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
+  </si>
+  <si>
+    <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
+  </si>
+  <si>
+    <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
+  </si>
+  <si>
+    <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
+  </si>
+  <si>
+    <t>Evaluation of the Influence of the Virtual Reality Helmet on Pain During IUD Insertion : REAVIST</t>
   </si>
   <si>
     <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
   </si>
   <si>
+    <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
+  </si>
+  <si>
     <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
   </si>
   <si>
-    <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
+    <t>BREGS - IL-2 Signaling and Polarization of Regulatory LBs: Involvement in Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
+  </si>
+  <si>
+    <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
+  </si>
+  <si>
+    <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
+  </si>
+  <si>
+    <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
+  </si>
+  <si>
+    <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
+  </si>
+  <si>
+    <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
   </si>
   <si>
     <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
   </si>
   <si>
-    <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
-  </si>
-  <si>
-    <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
-  </si>
-  <si>
-    <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
-  </si>
-  <si>
     <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
   </si>
   <si>
     <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
   </si>
   <si>
-    <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
-  </si>
-  <si>
-    <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
-  </si>
-  <si>
-    <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
-  </si>
-  <si>
-    <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
-  </si>
-  <si>
-    <t>BREGS - IL-2 Signaling and Polarization of Regulatory LBs: Involvement in Multiple Sclerosis</t>
-  </si>
-  <si>
     <t>TRI-FR : Multicentric Randomized Evaluation of Tricuspid Valve Percutaneous Repair System (Clip for the Tricuspid Valve) in the Treatment of Severe Secondary Tricuspid Disorders</t>
   </si>
   <si>
+    <t>Prospective, Sequential Multiple Assignment, Multicentric, Phase II Randomized Controlled Trial on Two Parallel Groups Comparing the Efficacy of Two Immunosuppressive Drugs (methotrexate, Cyclophosphamide) in Large Granular Lymphocytes Leukemia</t>
+  </si>
+  <si>
+    <t>Apomorphine Pump in Early Stage of Parkinson’s Disease 
+ Pompe à apomorphine au stade précoce de la maladie de Parkinson</t>
+  </si>
+  <si>
+    <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
+ Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
+  </si>
+  <si>
+    <t>Evaluation of the Relationship Between Anti-PD-1 Exposure and Tumor VOLUME in Patients Treated for Conventional HODgkin's Lymphoma 
+ Evaluation de la RElation entre exposition aux anti-PD-1 et VOLUme tumoral chez le patient traité pour un lyMphome de HODgkin classique</t>
+  </si>
+  <si>
     <t>Etude prospective, randomisée, en double aveugle, comparant l'effet d'une décontamination oro-pharyngée par la povidone-iodée à un placebo sur la réduction des pneumopathies acquises sous ventilation chez les patients traumatisés crâniens graves.</t>
+  </si>
+  <si>
+    <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
+ Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
   </si>
   <si>
     <t>Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement 
  Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement</t>
   </si>
   <si>
-    <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
- Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
-  </si>
-  <si>
-    <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
- Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
+    <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
   </si>
   <si>
     <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
   </si>
   <si>
-    <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
-  </si>
-  <si>
     <t>TRANSPEG</t>
   </si>
   <si>
@@ -1018,19 +1056,31 @@
     <t>AURAIA</t>
   </si>
   <si>
+    <t>SURFER</t>
+  </si>
+  <si>
+    <t>esogia</t>
+  </si>
+  <si>
+    <t>IPRA</t>
+  </si>
+  <si>
     <t>EMS-Dialyse</t>
   </si>
   <si>
-    <t>SURFER</t>
-  </si>
-  <si>
-    <t>esogia</t>
-  </si>
-  <si>
     <t>MELADOSE</t>
   </si>
   <si>
-    <t>IPRA</t>
+    <t>FERNORM</t>
+  </si>
+  <si>
+    <t>KitMel</t>
+  </si>
+  <si>
+    <t>ESOGIA</t>
+  </si>
+  <si>
+    <t>PACMoG</t>
   </si>
   <si>
     <t>PPA</t>
@@ -1039,237 +1089,225 @@
     <t>APO TEP</t>
   </si>
   <si>
-    <t>KitMel</t>
-  </si>
-  <si>
-    <t>PACMoG</t>
-  </si>
-  <si>
-    <t>ESOGIA</t>
-  </si>
-  <si>
-    <t>FERNORM</t>
+    <t>ATCF</t>
+  </si>
+  <si>
+    <t>VIBR-AVC</t>
+  </si>
+  <si>
+    <t>DELI-DEVI</t>
+  </si>
+  <si>
+    <t>BRAINGRAPH</t>
+  </si>
+  <si>
+    <t>Shortystrap</t>
+  </si>
+  <si>
+    <t>FIRBladd</t>
   </si>
   <si>
     <t>REVADE</t>
   </si>
   <si>
+    <t>ALTERVOL</t>
+  </si>
+  <si>
+    <t>APO-TEP</t>
+  </si>
+  <si>
+    <t>SAIGNEES</t>
+  </si>
+  <si>
     <t>SAINPOS</t>
   </si>
   <si>
-    <t>Shortystrap</t>
-  </si>
-  <si>
-    <t>ATCF</t>
-  </si>
-  <si>
-    <t>APO-TEP</t>
-  </si>
-  <si>
-    <t>BRAINGRAPH</t>
-  </si>
-  <si>
-    <t>DELI-DEVI</t>
-  </si>
-  <si>
-    <t>ALTERVOL</t>
-  </si>
-  <si>
-    <t>SAIGNEES</t>
-  </si>
-  <si>
-    <t>FIRBladd</t>
-  </si>
-  <si>
-    <t>VIBR-AVC</t>
-  </si>
-  <si>
     <t>EVIC-AVC</t>
   </si>
   <si>
+    <t>conneXion</t>
+  </si>
+  <si>
+    <t>PEDIMA</t>
+  </si>
+  <si>
+    <t>PSI-PUC</t>
+  </si>
+  <si>
+    <t>FLUO-POP</t>
+  </si>
+  <si>
+    <t>SEPTAL-PM</t>
+  </si>
+  <si>
+    <t>EQHEM</t>
+  </si>
+  <si>
+    <t>ARCHILACT</t>
+  </si>
+  <si>
     <t>AFLUCO4</t>
   </si>
   <si>
-    <t>EQHEM</t>
-  </si>
-  <si>
-    <t>PEDIMA</t>
-  </si>
-  <si>
-    <t>PSI-PUC</t>
-  </si>
-  <si>
-    <t>SEPTAL-PM</t>
-  </si>
-  <si>
-    <t>ARCHILACT</t>
-  </si>
-  <si>
-    <t>conneXion</t>
-  </si>
-  <si>
-    <t>FLUO-POP</t>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>EPMR-MA</t>
+  </si>
+  <si>
+    <t>ESPHALL</t>
+  </si>
+  <si>
+    <t>PC MIROIR</t>
   </si>
   <si>
     <t>FIBR-OH</t>
   </si>
   <si>
+    <t>KTHYPE</t>
+  </si>
+  <si>
+    <t>ROBO-K</t>
+  </si>
+  <si>
     <t>HEMOCOEUR</t>
   </si>
   <si>
     <t>PERINE</t>
   </si>
   <si>
-    <t>EPMR-MA</t>
-  </si>
-  <si>
-    <t>ESPHALL</t>
-  </si>
-  <si>
-    <t>TMS</t>
-  </si>
-  <si>
-    <t>KTHYPE</t>
-  </si>
-  <si>
-    <t>ROBO-K</t>
-  </si>
-  <si>
-    <t>PC MIROIR</t>
-  </si>
-  <si>
     <t>TgBEX</t>
   </si>
   <si>
+    <t>RICART</t>
+  </si>
+  <si>
+    <t>ORAL-ISO</t>
+  </si>
+  <si>
+    <t>MICROPRUNG</t>
+  </si>
+  <si>
+    <t>RESCUE</t>
+  </si>
+  <si>
+    <t>CLASH</t>
+  </si>
+  <si>
+    <t>TFP</t>
+  </si>
+  <si>
+    <t>SUPERSONIC</t>
+  </si>
+  <si>
     <t>JUVIA</t>
   </si>
   <si>
-    <t>ORAL-ISO</t>
-  </si>
-  <si>
-    <t>MICROPRUNG</t>
-  </si>
-  <si>
-    <t>RICART</t>
-  </si>
-  <si>
-    <t>RESCUE</t>
-  </si>
-  <si>
-    <t>TFP</t>
+    <t>IPOD</t>
+  </si>
+  <si>
+    <t>LAL TEL/ALM1</t>
+  </si>
+  <si>
+    <t>BRAINSTIM</t>
+  </si>
+  <si>
+    <t>STHYM</t>
   </si>
   <si>
     <t>TARGET</t>
   </si>
   <si>
-    <t>CLASH</t>
-  </si>
-  <si>
-    <t>BRAINSTIM</t>
-  </si>
-  <si>
-    <t>STHYM</t>
-  </si>
-  <si>
-    <t>SUPERSONIC</t>
-  </si>
-  <si>
-    <t>LAL TEL/ALM1</t>
-  </si>
-  <si>
-    <t>IPOD</t>
+    <t>TAP ALIF</t>
+  </si>
+  <si>
+    <t>Hed-O-Shift</t>
+  </si>
+  <si>
+    <t>RUC EHPAD</t>
+  </si>
+  <si>
+    <t>DEXA OP</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>DISCO</t>
+  </si>
+  <si>
+    <t>AVCPOSTIM</t>
+  </si>
+  <si>
+    <t>IRRICO</t>
+  </si>
+  <si>
+    <t>NEUROFEEDSTIM</t>
+  </si>
+  <si>
+    <t>IMAJ</t>
+  </si>
+  <si>
+    <t>SHERPAM</t>
+  </si>
+  <si>
+    <t>NEPHROPAIN</t>
+  </si>
+  <si>
+    <t>CAVIT</t>
+  </si>
+  <si>
+    <t>PERPHO</t>
+  </si>
+  <si>
+    <t>SAIFER</t>
   </si>
   <si>
     <t>SAOS</t>
   </si>
   <si>
-    <t>IMAJ</t>
-  </si>
-  <si>
-    <t>ALFA</t>
-  </si>
-  <si>
-    <t>DISCO</t>
-  </si>
-  <si>
-    <t>NEPHROPAIN</t>
-  </si>
-  <si>
-    <t>Hed-O-Shift</t>
-  </si>
-  <si>
-    <t>SHERPAM</t>
-  </si>
-  <si>
-    <t>RUC EHPAD</t>
-  </si>
-  <si>
-    <t>TAP ALIF</t>
-  </si>
-  <si>
-    <t>CAVIT</t>
-  </si>
-  <si>
-    <t>AVCPOSTIM</t>
-  </si>
-  <si>
-    <t>IRRICO</t>
-  </si>
-  <si>
-    <t>NEUROFEEDSTIM</t>
-  </si>
-  <si>
-    <t>DEXA OP</t>
-  </si>
-  <si>
-    <t>SAIFER</t>
-  </si>
-  <si>
-    <t>PERPHO</t>
+    <t>PROMETHEE</t>
+  </si>
+  <si>
+    <t>ECCES</t>
+  </si>
+  <si>
+    <t>IPC-Angio</t>
+  </si>
+  <si>
+    <t>AROPE</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>ECENVIR</t>
+  </si>
+  <si>
+    <t>MITOX-REBIF</t>
+  </si>
+  <si>
+    <t>GASS</t>
   </si>
   <si>
     <t>PENEW</t>
   </si>
   <si>
-    <t>IPC-Angio</t>
-  </si>
-  <si>
-    <t>SUCRE</t>
+    <t>AntiCoV-HB</t>
+  </si>
+  <si>
+    <t>EvoHSD</t>
+  </si>
+  <si>
+    <t>Immunocitre</t>
+  </si>
+  <si>
+    <t>HEMOCOMPARE</t>
   </si>
   <si>
     <t>EVRIOS</t>
   </si>
   <si>
-    <t>AntiCoV-HB</t>
-  </si>
-  <si>
-    <t>MITOX-REBIF</t>
-  </si>
-  <si>
-    <t>GASS</t>
-  </si>
-  <si>
-    <t>EvoHSD</t>
-  </si>
-  <si>
-    <t>HEMOCOMPARE</t>
-  </si>
-  <si>
-    <t>Immunocitre</t>
-  </si>
-  <si>
-    <t>ECCES</t>
-  </si>
-  <si>
-    <t>PROMETHEE</t>
-  </si>
-  <si>
-    <t>AROPE</t>
-  </si>
-  <si>
-    <t>ECENVIR</t>
-  </si>
-  <si>
     <t>OSS-IRM</t>
   </si>
   <si>
@@ -1282,148 +1320,165 @@
     <t>VECAR</t>
   </si>
   <si>
+    <t>SARCOLOWDOSE</t>
+  </si>
+  <si>
+    <t>NEPHROCAR</t>
+  </si>
+  <si>
     <t>EchoPé</t>
   </si>
   <si>
-    <t>HARMONICOV</t>
-  </si>
-  <si>
-    <t>SARCOLOWDOSE</t>
-  </si>
-  <si>
-    <t>REPLAY</t>
-  </si>
-  <si>
-    <t>AddictO</t>
+    <t>ESWWA</t>
+  </si>
+  <si>
+    <t>MacFibOsis</t>
   </si>
   <si>
     <t>Lena eNERGY 
  Lena eNERGY</t>
   </si>
   <si>
-    <t>NEPHROCAR</t>
-  </si>
-  <si>
-    <t>ESWWA</t>
+    <t>AddictO</t>
+  </si>
+  <si>
+    <t>HARMONICOV</t>
   </si>
   <si>
     <t>ARIADE</t>
   </si>
   <si>
-    <t>MacFibOsis</t>
+    <t>REPLAY</t>
+  </si>
+  <si>
+    <t>SELFEPO</t>
   </si>
   <si>
     <t>IRTA</t>
   </si>
   <si>
+    <t>ELECTROPAD</t>
+  </si>
+  <si>
+    <t>IMMUNO-MYELO</t>
+  </si>
+  <si>
+    <t>eNERGY</t>
+  </si>
+  <si>
+    <t>HYPIC</t>
+  </si>
+  <si>
+    <t>ALLAITEMENT</t>
+  </si>
+  <si>
     <t>COMFORT</t>
   </si>
   <si>
+    <t>REUSSI-SSc</t>
+  </si>
+  <si>
+    <t>DTI et NOI</t>
+  </si>
+  <si>
     <t>REAVIST</t>
   </si>
   <si>
+    <t>FLEGME</t>
+  </si>
+  <si>
     <t>AGAPO</t>
   </si>
   <si>
-    <t>ALLAITEMENT</t>
-  </si>
-  <si>
-    <t>DTI et NOI</t>
-  </si>
-  <si>
-    <t>IMMUNO-MYELO</t>
-  </si>
-  <si>
-    <t>eNERGY</t>
-  </si>
-  <si>
-    <t>HYPIC</t>
-  </si>
-  <si>
-    <t>SELFEPO</t>
-  </si>
-  <si>
-    <t>ELECTROPAD</t>
-  </si>
-  <si>
-    <t>FLEGME</t>
-  </si>
-  <si>
-    <t>REUSSI-SSc</t>
+    <t>BREGS</t>
+  </si>
+  <si>
+    <t>PRADA</t>
+  </si>
+  <si>
+    <t>DESTIMCARE</t>
+  </si>
+  <si>
+    <t>ACTIDEP</t>
+  </si>
+  <si>
+    <t>HANDS</t>
+  </si>
+  <si>
+    <t>EpiCANS</t>
+  </si>
+  <si>
+    <t>RECOVER-19</t>
+  </si>
+  <si>
+    <t>DIPLOID</t>
   </si>
   <si>
     <t>ABCD-SEP</t>
   </si>
   <si>
-    <t>ACTIDEP</t>
-  </si>
-  <si>
-    <t>RECOVER-19</t>
-  </si>
-  <si>
-    <t>EpiCANS</t>
-  </si>
-  <si>
     <t>VIRUS-ATTAC</t>
   </si>
   <si>
-    <t>DESTIMCARE</t>
-  </si>
-  <si>
-    <t>DIPLOID</t>
-  </si>
-  <si>
-    <t>PRADA</t>
-  </si>
-  <si>
-    <t>HANDS</t>
-  </si>
-  <si>
-    <t>BREGS</t>
-  </si>
-  <si>
     <t>TRI-FR</t>
   </si>
   <si>
+    <t>LGL</t>
+  </si>
+  <si>
+    <t>EARLY-PUMP 
+ EARLY-PUMP</t>
+  </si>
+  <si>
+    <t>PRADA 
+ PRADA</t>
+  </si>
+  <si>
+    <t>REVOLUMHOD 
+ REVOLUMHOD</t>
+  </si>
+  <si>
     <t>SPIRIT</t>
-  </si>
-  <si>
-    <t>PHARM-APO</t>
   </si>
   <si>
     <t>DIPLOID 
  DIPLOID</t>
   </si>
   <si>
-    <t>PRADA 
- PRADA</t>
+    <t>PHARM-APO</t>
   </si>
   <si>
     <t>EUROFILLING</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>DRUG</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
     <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
-    <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
-    <t>DIAGNOSTIC_TEST</t>
+    <t>GENETIC</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,13 +1882,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1847,13 +1902,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1867,13 +1922,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1887,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1907,13 +1962,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+      <c r="H6" t="s">
+        <v>337</v>
       </c>
       <c r="I6" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1927,16 +1985,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="I7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1950,16 +2005,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1973,16 +2028,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1996,16 +2051,16 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I10" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2019,16 +2074,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="I11" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2042,13 +2094,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>341</v>
       </c>
       <c r="I12" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2062,16 +2117,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="I13" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2085,16 +2140,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2108,16 +2163,16 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2127,152 +2182,155 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
+      <c r="D16" t="s">
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I16" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>346</v>
+      </c>
+      <c r="I17" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="I18" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I19" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>350</v>
+      </c>
+      <c r="I21" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I22" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2283,19 +2341,19 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="I23" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2306,62 +2364,65 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="I24" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="I25" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I26" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2375,16 +2436,16 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I27" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2398,13 +2459,16 @@
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>215</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="I28" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2418,85 +2482,82 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="I29" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="I30" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H31" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="I31" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="I32" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2510,62 +2571,62 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="I33" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="I34" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H35" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="I35" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2579,16 +2640,16 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="I36" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2602,108 +2663,108 @@
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H37" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="I37" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H38" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="I38" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="I39" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="I40" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="I41" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2717,39 +2778,39 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H42" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="I42" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I43" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2763,85 +2824,85 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H44" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="I44" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="I45" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="I46" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I47" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2855,108 +2916,108 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I48" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="I49" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="I50" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I51" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2970,39 +3031,39 @@
         <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G53" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="I53" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="I54" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3016,39 +3077,39 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="I55" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="I56" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3062,36 +3123,39 @@
         <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>243</v>
+      </c>
+      <c r="H57" t="s">
+        <v>386</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3105,16 +3169,16 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3128,39 +3192,36 @@
         <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I60" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H61" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3174,16 +3235,13 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
-      </c>
-      <c r="H62" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="I62" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3197,220 +3255,223 @@
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H63" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="I63" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="I64" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G65" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H65" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="I65" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="I66" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I67" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G68" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H68" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I68" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G69" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H69" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="I69" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="H70" t="s">
+        <v>397</v>
       </c>
       <c r="I70" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H71" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="I71" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H72" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="I72" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3424,39 +3485,42 @@
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H73" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="I73" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="I74" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3470,16 +3534,16 @@
         <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H75" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="I75" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3493,16 +3557,16 @@
         <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G76" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3516,85 +3580,85 @@
         <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H77" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="I77" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G78" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H78" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="I78" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="I79" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H80" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="I80" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3605,16 +3669,19 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H81" t="s">
-        <v>394</v>
+        <v>398</v>
+      </c>
+      <c r="I81" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3628,85 +3695,88 @@
         <v>94</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="I82" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>95</v>
       </c>
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="I83" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G84" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H84" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="I84" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
         <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H85" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="I85" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3720,85 +3790,85 @@
         <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H86" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G87" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H87" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="I87" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H88" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="I88" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G89" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H89" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="I89" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3811,43 +3881,40 @@
       <c r="C90" t="s">
         <v>102</v>
       </c>
-      <c r="D90" t="s">
-        <v>157</v>
-      </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G90" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H90" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="I90" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G91" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H91" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="I91" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3860,155 +3927,164 @@
       <c r="C92" t="s">
         <v>104</v>
       </c>
+      <c r="D92" t="s">
+        <v>160</v>
+      </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H92" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="I92" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
         <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="I93" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
       </c>
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G94" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H94" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="I94" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>107</v>
       </c>
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G95" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H95" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="I95" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H96" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="I96" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G97" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H97" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="I97" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G98" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H98" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="I98" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4022,62 +4098,65 @@
         <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H99" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="I99" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G100" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H100" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I100" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
       </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
       <c r="F101" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G101" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H101" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="I101" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4091,16 +4170,16 @@
         <v>114</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G102" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H102" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="I102" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4114,16 +4193,16 @@
         <v>115</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G103" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H103" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="I103" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4137,16 +4216,16 @@
         <v>116</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G104" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H104" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="I104" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4160,16 +4239,16 @@
         <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G105" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H105" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="I105" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4183,39 +4262,39 @@
         <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G106" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H106" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="I106" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G107" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H107" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="I107" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4229,16 +4308,16 @@
         <v>120</v>
       </c>
       <c r="F108" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H108" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="I108" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4252,16 +4331,16 @@
         <v>121</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G109" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H109" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="I109" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4275,16 +4354,16 @@
         <v>122</v>
       </c>
       <c r="F110" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G110" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H110" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="I110" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4295,16 +4374,19 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F111" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G111" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H111" t="s">
-        <v>425</v>
+        <v>437</v>
+      </c>
+      <c r="I111" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4318,16 +4400,16 @@
         <v>123</v>
       </c>
       <c r="F112" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G112" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H112" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="I112" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4341,16 +4423,16 @@
         <v>124</v>
       </c>
       <c r="F113" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G113" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H113" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="I113" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4364,39 +4446,39 @@
         <v>125</v>
       </c>
       <c r="F114" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G114" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H114" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="I114" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>126</v>
       </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G115" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="H115" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="I115" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4410,16 +4492,16 @@
         <v>127</v>
       </c>
       <c r="F116" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G116" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H116" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="I116" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4433,39 +4515,39 @@
         <v>128</v>
       </c>
       <c r="F117" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H117" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="I117" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>129</v>
       </c>
       <c r="F118" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G118" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H118" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="I118" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4475,20 +4557,20 @@
       <c r="B119" t="s">
         <v>14</v>
       </c>
-      <c r="C119" t="s">
-        <v>130</v>
+      <c r="D119" t="s">
+        <v>165</v>
       </c>
       <c r="F119" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G119" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H119" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="I119" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4499,19 +4581,19 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F120" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G120" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H120" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I120" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4522,19 +4604,19 @@
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F121" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G121" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="H121" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="I121" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4544,17 +4626,20 @@
       <c r="B122" t="s">
         <v>14</v>
       </c>
-      <c r="D122" t="s">
-        <v>159</v>
+      <c r="C122" t="s">
+        <v>132</v>
       </c>
       <c r="F122" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G122" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H122" t="s">
-        <v>436</v>
+        <v>448</v>
+      </c>
+      <c r="I122" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4568,16 +4653,16 @@
         <v>133</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G123" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H123" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="I123" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4591,16 +4676,16 @@
         <v>134</v>
       </c>
       <c r="F124" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G124" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H124" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="I124" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4614,39 +4699,39 @@
         <v>135</v>
       </c>
       <c r="F125" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G125" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H125" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="I125" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
         <v>136</v>
       </c>
       <c r="F126" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G126" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H126" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="I126" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4660,16 +4745,16 @@
         <v>137</v>
       </c>
       <c r="F127" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G127" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H127" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="I127" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4683,13 +4768,16 @@
         <v>138</v>
       </c>
       <c r="F128" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G128" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="H128" t="s">
+        <v>454</v>
       </c>
       <c r="I128" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4703,16 +4791,13 @@
         <v>139</v>
       </c>
       <c r="F129" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
-        <v>306</v>
-      </c>
-      <c r="H129" t="s">
-        <v>442</v>
+        <v>315</v>
       </c>
       <c r="I129" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4726,39 +4811,39 @@
         <v>140</v>
       </c>
       <c r="F130" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G130" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H130" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="I130" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
         <v>141</v>
       </c>
       <c r="F131" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G131" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H131" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="I131" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4772,16 +4857,16 @@
         <v>142</v>
       </c>
       <c r="F132" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G132" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H132" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="I132" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4795,39 +4880,39 @@
         <v>143</v>
       </c>
       <c r="F133" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G133" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H133" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="I133" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
         <v>144</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H134" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="I134" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4841,16 +4926,16 @@
         <v>145</v>
       </c>
       <c r="F135" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G135" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H135" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="I135" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4864,16 +4949,16 @@
         <v>146</v>
       </c>
       <c r="F136" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H136" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="I136" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4887,62 +4972,62 @@
         <v>147</v>
       </c>
       <c r="F137" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G137" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="I137" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
         <v>148</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G138" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H138" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="I138" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
       </c>
       <c r="F139" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G139" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H139" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I139" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4956,16 +5041,16 @@
         <v>150</v>
       </c>
       <c r="F140" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H140" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="I140" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4979,16 +5064,16 @@
         <v>151</v>
       </c>
       <c r="F141" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G141" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H141" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="I141" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4998,14 +5083,20 @@
       <c r="B142" t="s">
         <v>14</v>
       </c>
-      <c r="D142" t="s">
-        <v>160</v>
+      <c r="C142" t="s">
+        <v>152</v>
+      </c>
+      <c r="F142" t="s">
+        <v>188</v>
       </c>
       <c r="G142" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H142" t="s">
-        <v>454</v>
+        <v>466</v>
+      </c>
+      <c r="I142" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5016,13 +5107,19 @@
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="F143" t="s">
+        <v>189</v>
       </c>
       <c r="G143" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H143" t="s">
-        <v>455</v>
+        <v>467</v>
+      </c>
+      <c r="I143" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5033,13 +5130,16 @@
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G144" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H144" t="s">
-        <v>456</v>
+        <v>468</v>
+      </c>
+      <c r="I144" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5050,13 +5150,16 @@
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G145" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H145" t="s">
-        <v>457</v>
+        <v>469</v>
+      </c>
+      <c r="I145" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5066,14 +5169,17 @@
       <c r="B146" t="s">
         <v>14</v>
       </c>
-      <c r="C146" t="s">
-        <v>152</v>
+      <c r="D146" t="s">
+        <v>169</v>
       </c>
       <c r="G146" t="s">
-        <v>323</v>
+        <v>332</v>
+      </c>
+      <c r="H146" t="s">
+        <v>470</v>
       </c>
       <c r="I146" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5083,17 +5189,74 @@
       <c r="B147" t="s">
         <v>14</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" t="s">
+        <v>333</v>
+      </c>
+      <c r="H147" t="s">
+        <v>471</v>
+      </c>
+      <c r="I147" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>171</v>
+      </c>
+      <c r="G148" t="s">
+        <v>334</v>
+      </c>
+      <c r="H148" t="s">
+        <v>472</v>
+      </c>
+      <c r="I148" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
         <v>153</v>
       </c>
-      <c r="G147" t="s">
-        <v>324</v>
-      </c>
-      <c r="H147" t="s">
-        <v>458</v>
-      </c>
-      <c r="I147" t="s">
-        <v>459</v>
+      <c r="G149" t="s">
+        <v>335</v>
+      </c>
+      <c r="H149" t="s">
+        <v>473</v>
+      </c>
+      <c r="I149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" t="s">
+        <v>336</v>
+      </c>
+      <c r="I150" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
